--- a/skills/Skills v3.xlsx
+++ b/skills/Skills v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB76369D-7911-F444-8844-692C4993278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9259251B-FDEB-8B4F-9A8B-BA6002236767}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14080" yWindow="460" windowWidth="14720" windowHeight="16260" firstSheet="1" activeTab="6" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="10280" yWindow="460" windowWidth="18520" windowHeight="16200" firstSheet="1" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="3032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="3038">
   <si>
     <t>Skill</t>
   </si>
@@ -6612,9 +6612,6 @@
     <t>Search Engine and Keyword Optimization</t>
   </si>
   <si>
-    <t>Search Engine Marketing</t>
-  </si>
-  <si>
     <t>Certified Information Systems Security Professional (CISSP)</t>
   </si>
   <si>
@@ -9139,6 +9136,27 @@
   </si>
   <si>
     <t>Wireless Site Survey</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>Search Engine Marketing (SEM)</t>
+  </si>
+  <si>
+    <t>Google Ads</t>
+  </si>
+  <si>
+    <t>Facebook Ads</t>
+  </si>
+  <si>
+    <t>Marketing Channel</t>
+  </si>
+  <si>
+    <t>Pay-Per-Click (PPC) Marketing</t>
   </si>
 </sst>
 </file>
@@ -9290,89 +9308,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF4472C4"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF4472C4"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF4472C4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -9744,6 +9679,89 @@
     <dxf>
       <border outline="0">
         <left style="thin">
+          <color rgb="FF4472C4"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF4472C4"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF4472C4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
           <color theme="4"/>
         </left>
         <right style="thin">
@@ -9823,21 +9841,21 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3C31CE8A-9E26-8247-940B-AE5A4FDA74F1}" name="Table15" displayName="Table15" ref="A1:A288" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3C31CE8A-9E26-8247-940B-AE5A4FDA74F1}" name="Table15" displayName="Table15" ref="A1:A288" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:A288" xr:uid="{DDD29182-1E85-2F47-B51B-59011EE663C6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A287">
     <sortCondition ref="A1:A287"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E1AFB575-3D7C-3140-B1E4-49C8161DDAF1}" name="Skill" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{E1AFB575-3D7C-3140-B1E4-49C8161DDAF1}" name="Skill" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{991904A6-EAD7-504C-A1CD-D337B327E05E}" name="Table11" displayName="Table11" ref="A1:A457" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A1:A457" xr:uid="{9FE3E1A7-0457-9B49-A511-D19235986222}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{991904A6-EAD7-504C-A1CD-D337B327E05E}" name="Table11" displayName="Table11" ref="A1:A462" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="A1:A462" xr:uid="{9FE3E1A7-0457-9B49-A511-D19235986222}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A457">
     <sortCondition ref="A1:A446"/>
   </sortState>
@@ -9875,13 +9893,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7276080E-F262-4E48-861C-49BEC2BC39AF}" name="Table11131415" displayName="Table11131415" ref="A1:A521" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7276080E-F262-4E48-861C-49BEC2BC39AF}" name="Table11131415" displayName="Table11131415" ref="A1:A521" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:A521" xr:uid="{9FE3E1A7-0457-9B49-A511-D19235986222}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A521">
     <sortCondition ref="A1:A521"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7B9483E1-143B-6741-B590-06C0B59F7E10}" name="Skill" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7B9483E1-143B-6741-B590-06C0B59F7E10}" name="Skill" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9901,8 +9919,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{914AC188-EAEE-2C4C-AFC9-7073238B52DC}" name="Table311" displayName="Table311" ref="A1:A256" totalsRowShown="0">
-  <autoFilter ref="A1:A256" xr:uid="{2DF645BF-484A-D846-BB3C-AFD56E1950FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{914AC188-EAEE-2C4C-AFC9-7073238B52DC}" name="Table311" displayName="Table311" ref="A1:A258" totalsRowShown="0">
+  <autoFilter ref="A1:A258" xr:uid="{2DF645BF-484A-D846-BB3C-AFD56E1950FF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A256">
     <sortCondition ref="A1:A256"/>
   </sortState>
@@ -9914,26 +9932,26 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D1D55681-68F5-044B-A6BE-5861018240B1}" name="Table4" displayName="Table4" ref="A1:A174" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D1D55681-68F5-044B-A6BE-5861018240B1}" name="Table4" displayName="Table4" ref="A1:A174" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A1:A174" xr:uid="{C0AAE299-E912-8B48-937B-34583607F22B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A174">
     <sortCondition ref="A1:A174"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{27F99AEC-A7BF-4E44-A570-36C04A1251AC}" name="Skill" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{27F99AEC-A7BF-4E44-A570-36C04A1251AC}" name="Skill" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D3EADB99-0D20-D14B-AB4C-61D190B81338}" name="Table9" displayName="Table9" ref="A1:A104" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D3EADB99-0D20-D14B-AB4C-61D190B81338}" name="Table9" displayName="Table9" ref="A1:A104" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:A104" xr:uid="{DDBDA75A-881A-0749-AA2F-B60C92F90350}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A104">
     <sortCondition ref="A1:A104"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F17142B4-F932-704B-8A4E-0D89A6DF408F}" name="Skill" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{F17142B4-F932-704B-8A4E-0D89A6DF408F}" name="Skill" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10259,7 +10277,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -10284,7 +10302,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -10630,7 +10648,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
@@ -10755,7 +10773,7 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -10980,7 +10998,7 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
@@ -10990,7 +11008,7 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
@@ -11060,7 +11078,7 @@
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
@@ -11125,7 +11143,7 @@
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
@@ -11145,7 +11163,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
@@ -11595,7 +11613,7 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
@@ -11755,7 +11773,7 @@
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
   </sheetData>
@@ -11768,10 +11786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDDDC9A-AA80-054F-BCF1-1A8B267248E6}">
-  <dimension ref="A1:A457"/>
+  <dimension ref="A1:A462"/>
   <sheetViews>
-    <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:XFD444"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="A445" sqref="A445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12476,22 +12494,22 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
@@ -12506,17 +12524,17 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
@@ -12596,7 +12614,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
@@ -12946,7 +12964,7 @@
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
@@ -13051,7 +13069,7 @@
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
@@ -13251,7 +13269,7 @@
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
@@ -13321,7 +13339,7 @@
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
@@ -13341,7 +13359,7 @@
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
@@ -13641,7 +13659,7 @@
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
@@ -13681,7 +13699,7 @@
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
@@ -13691,7 +13709,7 @@
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
@@ -13741,7 +13759,7 @@
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
-        <v>2189</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
@@ -13816,7 +13834,7 @@
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
@@ -14062,6 +14080,31 @@
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
         <v>1290</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" s="3" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" s="3" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" s="3" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="3" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="3" t="s">
+        <v>3037</v>
       </c>
     </row>
   </sheetData>
@@ -14098,17 +14141,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -14118,22 +14161,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -14148,7 +14191,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -14168,12 +14211,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -14183,7 +14226,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -14193,17 +14236,17 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -14213,22 +14256,22 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
@@ -14253,12 +14296,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
@@ -14273,12 +14316,12 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
@@ -14328,7 +14371,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -14343,7 +14386,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
@@ -14353,7 +14396,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
@@ -14383,17 +14426,17 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
@@ -14403,7 +14446,7 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
@@ -14413,7 +14456,7 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
@@ -14438,7 +14481,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
@@ -14458,7 +14501,7 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
@@ -14478,12 +14521,12 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
@@ -14493,12 +14536,12 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
@@ -14573,7 +14616,7 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
@@ -14603,7 +14646,7 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
@@ -14628,7 +14671,7 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
@@ -14663,7 +14706,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
@@ -14688,7 +14731,7 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
@@ -14698,7 +14741,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
@@ -14733,17 +14776,17 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
@@ -14753,7 +14796,7 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
@@ -14763,17 +14806,17 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -14803,17 +14846,17 @@
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
@@ -14823,7 +14866,7 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
@@ -14833,7 +14876,7 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
@@ -14843,12 +14886,12 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
@@ -14863,17 +14906,17 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
@@ -14883,17 +14926,17 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
@@ -14933,22 +14976,22 @@
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -14958,17 +15001,17 @@
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
@@ -14978,12 +15021,12 @@
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
@@ -15008,7 +15051,7 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
@@ -15028,7 +15071,7 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
@@ -15038,12 +15081,12 @@
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
@@ -15063,7 +15106,7 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
@@ -15078,7 +15121,7 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
@@ -15093,22 +15136,22 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
@@ -15163,17 +15206,17 @@
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
@@ -15183,7 +15226,7 @@
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
@@ -15193,7 +15236,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
@@ -15223,12 +15266,12 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
@@ -15238,7 +15281,7 @@
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
@@ -15248,7 +15291,7 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
@@ -15278,12 +15321,12 @@
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
@@ -15323,12 +15366,12 @@
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
@@ -15348,12 +15391,12 @@
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
@@ -15368,12 +15411,12 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
@@ -15388,7 +15431,7 @@
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
@@ -15408,7 +15451,7 @@
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
@@ -15438,7 +15481,7 @@
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
@@ -15458,7 +15501,7 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
@@ -15473,7 +15516,7 @@
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
@@ -15513,27 +15556,27 @@
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
@@ -15543,12 +15586,12 @@
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
@@ -15558,7 +15601,7 @@
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
@@ -15583,17 +15626,17 @@
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
@@ -15608,7 +15651,7 @@
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
@@ -15618,7 +15661,7 @@
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
@@ -15628,7 +15671,7 @@
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
@@ -15638,7 +15681,7 @@
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
@@ -15653,7 +15696,7 @@
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
@@ -15688,7 +15731,7 @@
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
@@ -15698,7 +15741,7 @@
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
@@ -15708,7 +15751,7 @@
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
@@ -15723,7 +15766,7 @@
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
@@ -15733,7 +15776,7 @@
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
@@ -15743,7 +15786,7 @@
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
@@ -15758,7 +15801,7 @@
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
@@ -15768,7 +15811,7 @@
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
@@ -15778,12 +15821,12 @@
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
@@ -15798,12 +15841,12 @@
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
@@ -15823,7 +15866,7 @@
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
@@ -15838,12 +15881,12 @@
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="5" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
@@ -15868,7 +15911,7 @@
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
@@ -15898,12 +15941,12 @@
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
@@ -15918,12 +15961,12 @@
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
@@ -15963,7 +16006,7 @@
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="5" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
@@ -15978,12 +16021,12 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="5" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
@@ -15998,12 +16041,12 @@
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="5" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
@@ -16013,12 +16056,12 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="5" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="5" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
@@ -16028,7 +16071,7 @@
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
@@ -16048,12 +16091,12 @@
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="5" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
@@ -16093,7 +16136,7 @@
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="5" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
@@ -16118,7 +16161,7 @@
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
@@ -16133,17 +16176,17 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
@@ -16153,27 +16196,27 @@
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
@@ -16188,7 +16231,7 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
@@ -16198,7 +16241,7 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
@@ -16218,7 +16261,7 @@
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
@@ -16228,7 +16271,7 @@
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="5" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
@@ -16248,7 +16291,7 @@
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
@@ -16313,7 +16356,7 @@
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="5" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
@@ -16338,7 +16381,7 @@
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
@@ -16358,12 +16401,12 @@
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
@@ -16373,7 +16416,7 @@
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
@@ -16398,7 +16441,7 @@
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="5" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
@@ -16418,7 +16461,7 @@
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="5" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
@@ -16433,7 +16476,7 @@
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="5" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
@@ -16478,7 +16521,7 @@
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="5" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
@@ -16503,12 +16546,12 @@
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="5" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="5" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
@@ -16523,7 +16566,7 @@
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
@@ -16533,12 +16576,12 @@
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="5" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
@@ -16553,7 +16596,7 @@
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="5" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
@@ -16568,12 +16611,12 @@
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="5" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="5" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
@@ -16593,7 +16636,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="5" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
@@ -16613,7 +16656,7 @@
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="5" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
@@ -16628,7 +16671,7 @@
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="5" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
@@ -16653,7 +16696,7 @@
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="5" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
@@ -16668,7 +16711,7 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="5" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
@@ -16678,7 +16721,7 @@
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="5" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
@@ -16688,12 +16731,12 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="5" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="5" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
@@ -16708,17 +16751,17 @@
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="5" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="5" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="5" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
@@ -16733,7 +16776,7 @@
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="5" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
@@ -16743,12 +16786,12 @@
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="5" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="5" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
@@ -16763,12 +16806,12 @@
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="5" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="5" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
@@ -16788,7 +16831,7 @@
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="5" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.2">
@@ -16798,7 +16841,7 @@
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="5" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
@@ -16833,7 +16876,7 @@
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="5" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
@@ -16853,7 +16896,7 @@
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="5" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
@@ -16873,7 +16916,7 @@
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="18" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
@@ -16888,7 +16931,7 @@
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="18" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.2">
@@ -16923,17 +16966,17 @@
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="18" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="18" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="18" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.2">
@@ -16958,7 +17001,7 @@
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="18" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.2">
@@ -16968,17 +17011,17 @@
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" s="18" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" s="18" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.2">
@@ -16988,12 +17031,12 @@
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="5" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.2">
@@ -17008,7 +17051,7 @@
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.2">
@@ -17018,7 +17061,7 @@
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="5" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.2">
@@ -17038,7 +17081,7 @@
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" s="5" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.2">
@@ -17058,7 +17101,7 @@
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" s="5" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.2">
@@ -17073,7 +17116,7 @@
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" s="5" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.2">
@@ -17098,12 +17141,12 @@
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" s="5" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" s="5" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.2">
@@ -17113,7 +17156,7 @@
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" s="5" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.2">
@@ -17158,27 +17201,27 @@
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" s="5" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" s="5" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" s="5" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="5" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.2">
@@ -17203,12 +17246,12 @@
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" s="5" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" s="5" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.2">
@@ -17243,17 +17286,17 @@
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" s="5" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" s="5" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" s="5" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
   </sheetData>
@@ -17285,12 +17328,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -17315,12 +17358,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -17330,7 +17373,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -17350,7 +17393,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -17375,7 +17418,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -17460,12 +17503,12 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -17480,7 +17523,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
@@ -17535,22 +17578,22 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
@@ -17565,22 +17608,22 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
@@ -17590,12 +17633,12 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
@@ -17605,12 +17648,12 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
@@ -17630,12 +17673,12 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
@@ -17700,22 +17743,22 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -17730,12 +17773,12 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
@@ -17755,7 +17798,7 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
@@ -17780,7 +17823,7 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
@@ -17790,12 +17833,12 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
@@ -17815,7 +17858,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
@@ -17825,12 +17868,12 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
@@ -17855,7 +17898,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
@@ -17890,7 +17933,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
@@ -17905,7 +17948,7 @@
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
@@ -17935,7 +17978,7 @@
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
@@ -17945,7 +17988,7 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
@@ -17970,12 +18013,12 @@
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
@@ -17985,12 +18028,12 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
@@ -18000,7 +18043,7 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
@@ -18055,12 +18098,12 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
@@ -18070,12 +18113,12 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
@@ -18095,12 +18138,12 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
@@ -18115,7 +18158,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
@@ -18125,7 +18168,7 @@
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
@@ -18145,7 +18188,7 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
@@ -18155,12 +18198,12 @@
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
@@ -18175,7 +18218,7 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
@@ -18185,7 +18228,7 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
@@ -18205,7 +18248,7 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
@@ -18220,12 +18263,12 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
@@ -18235,12 +18278,12 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
@@ -18250,7 +18293,7 @@
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
@@ -18260,7 +18303,7 @@
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
@@ -18270,12 +18313,12 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
@@ -18285,12 +18328,12 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -18305,7 +18348,7 @@
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
@@ -18330,22 +18373,22 @@
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
@@ -18360,17 +18403,17 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
@@ -18385,7 +18428,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
@@ -18400,7 +18443,7 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
@@ -18425,12 +18468,12 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
@@ -18445,12 +18488,12 @@
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
@@ -18465,7 +18508,7 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
@@ -18475,7 +18518,7 @@
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
@@ -18485,7 +18528,7 @@
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
@@ -18495,7 +18538,7 @@
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
@@ -18520,7 +18563,7 @@
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
@@ -18545,22 +18588,22 @@
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
@@ -18570,7 +18613,7 @@
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
@@ -18595,17 +18638,17 @@
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
@@ -18635,7 +18678,7 @@
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
@@ -18645,12 +18688,12 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
@@ -18665,17 +18708,17 @@
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
@@ -18685,7 +18728,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
@@ -18700,7 +18743,7 @@
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
@@ -18715,12 +18758,12 @@
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
@@ -18730,7 +18773,7 @@
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
@@ -18740,7 +18783,7 @@
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
@@ -18755,7 +18798,7 @@
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
@@ -18770,17 +18813,17 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
@@ -18790,7 +18833,7 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
@@ -18800,17 +18843,17 @@
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
@@ -18830,7 +18873,7 @@
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
@@ -18850,7 +18893,7 @@
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
@@ -18875,7 +18918,7 @@
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
@@ -18885,12 +18928,12 @@
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
@@ -18905,7 +18948,7 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
@@ -18925,12 +18968,12 @@
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
@@ -18940,7 +18983,7 @@
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
@@ -18955,12 +18998,12 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
@@ -18970,7 +19013,7 @@
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
@@ -18985,7 +19028,7 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
@@ -19005,7 +19048,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
@@ -19025,7 +19068,7 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
@@ -19035,7 +19078,7 @@
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
@@ -19045,7 +19088,7 @@
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
@@ -19065,7 +19108,7 @@
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
@@ -19100,12 +19143,12 @@
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
@@ -19115,12 +19158,12 @@
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
@@ -19140,17 +19183,17 @@
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="5" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
@@ -19160,7 +19203,7 @@
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
@@ -19170,12 +19213,12 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="5" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
@@ -19195,52 +19238,52 @@
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="5" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="5" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="5" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
@@ -19255,7 +19298,7 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
@@ -19275,12 +19318,12 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="5" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
@@ -19305,7 +19348,7 @@
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="5" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
@@ -19365,7 +19408,7 @@
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
@@ -19375,7 +19418,7 @@
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
@@ -19440,7 +19483,7 @@
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
@@ -19495,12 +19538,12 @@
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="5" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
@@ -19545,7 +19588,7 @@
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
@@ -19555,17 +19598,17 @@
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="5" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
@@ -19575,7 +19618,7 @@
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
@@ -19625,7 +19668,7 @@
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="5" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
@@ -19635,7 +19678,7 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="5" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
@@ -19685,7 +19728,7 @@
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="5" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
@@ -19722,7 +19765,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -19732,32 +19775,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -19767,7 +19810,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -19782,17 +19825,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -19807,27 +19850,27 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
@@ -19837,87 +19880,87 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
@@ -19927,7 +19970,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
@@ -19937,22 +19980,22 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -19962,32 +20005,32 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
@@ -20007,7 +20050,7 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
@@ -20027,7 +20070,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
@@ -20047,17 +20090,17 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
@@ -20067,12 +20110,12 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
@@ -20082,32 +20125,32 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
@@ -20117,37 +20160,37 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
@@ -20167,32 +20210,32 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
@@ -20207,7 +20250,7 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
@@ -20222,12 +20265,12 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
@@ -20242,7 +20285,7 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
@@ -20252,67 +20295,67 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
@@ -20322,17 +20365,17 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
@@ -20347,7 +20390,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
@@ -20357,7 +20400,7 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
@@ -20367,42 +20410,42 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -20412,7 +20455,7 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
@@ -20422,52 +20465,52 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
@@ -20477,27 +20520,27 @@
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
@@ -20507,7 +20550,7 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
@@ -20517,32 +20560,32 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
@@ -20552,57 +20595,57 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
@@ -20617,7 +20660,7 @@
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
@@ -20627,17 +20670,17 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
@@ -20647,22 +20690,22 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
@@ -20682,7 +20725,7 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
@@ -20692,7 +20735,7 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
@@ -20702,7 +20745,7 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
@@ -20742,7 +20785,7 @@
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
@@ -20762,17 +20805,17 @@
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
@@ -20782,12 +20825,12 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
@@ -20797,7 +20840,7 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
@@ -20807,27 +20850,27 @@
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
@@ -20852,7 +20895,7 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
@@ -20877,17 +20920,17 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
@@ -20902,52 +20945,52 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
@@ -20957,72 +21000,72 @@
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
@@ -21032,7 +21075,7 @@
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
@@ -21042,7 +21085,7 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
@@ -21052,27 +21095,27 @@
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
@@ -21082,7 +21125,7 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
@@ -21097,32 +21140,32 @@
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
@@ -21132,12 +21175,12 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
@@ -21147,52 +21190,52 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
@@ -21202,12 +21245,12 @@
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
@@ -21217,7 +21260,7 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
@@ -21232,12 +21275,12 @@
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
@@ -21252,57 +21295,57 @@
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
@@ -21312,17 +21355,17 @@
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
@@ -21332,7 +21375,7 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
@@ -21342,7 +21385,7 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
@@ -21357,22 +21400,22 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
@@ -21392,7 +21435,7 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
@@ -21412,17 +21455,17 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
@@ -21437,17 +21480,17 @@
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
@@ -21457,7 +21500,7 @@
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
@@ -21487,7 +21530,7 @@
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
@@ -21497,7 +21540,7 @@
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
@@ -21522,7 +21565,7 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
@@ -21537,72 +21580,72 @@
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="19" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="19" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="19" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="5" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="5" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="5" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
@@ -21612,32 +21655,32 @@
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="5" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="5" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="5" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
@@ -21652,37 +21695,37 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="5" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="5" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="5" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
@@ -21692,17 +21735,17 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="5" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="5" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
@@ -21717,17 +21760,17 @@
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="5" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
@@ -21737,12 +21780,12 @@
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="5" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
@@ -21752,22 +21795,22 @@
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
@@ -21777,17 +21820,17 @@
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="5" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
@@ -21797,12 +21840,12 @@
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
@@ -21817,7 +21860,7 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
@@ -21827,42 +21870,42 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="5" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="5" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="5" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="19" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
@@ -21882,32 +21925,32 @@
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="5" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="5" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
@@ -21917,27 +21960,27 @@
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="5" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
@@ -21947,22 +21990,22 @@
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="5" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="5" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="5" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="5" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
@@ -21972,12 +22015,12 @@
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
@@ -21992,32 +22035,32 @@
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="5" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
@@ -22027,12 +22070,12 @@
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="5" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
@@ -22042,17 +22085,17 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="5" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="5" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
@@ -22067,22 +22110,22 @@
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="5" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="5" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="5" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
@@ -22092,22 +22135,22 @@
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="5" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="5" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="5" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="5" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
@@ -22117,17 +22160,17 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="5" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="5" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="5" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
@@ -22142,17 +22185,17 @@
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="5" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
@@ -22162,7 +22205,7 @@
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
@@ -22172,7 +22215,7 @@
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="5" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
@@ -22182,17 +22225,17 @@
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="5" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="5" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="5" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -22202,67 +22245,67 @@
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="5" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="5" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="5" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="5" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="5" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="5" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="5" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="5" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="5" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="5" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="5" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="5" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
@@ -22282,27 +22325,27 @@
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="5" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="5" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="5" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="5" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="5" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
@@ -22312,7 +22355,7 @@
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="5" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
@@ -22378,7 +22421,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -22463,7 +22506,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -22473,7 +22516,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
@@ -22488,7 +22531,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -22518,7 +22561,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
@@ -22568,7 +22611,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
@@ -22583,7 +22626,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -22598,7 +22641,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
@@ -22608,7 +22651,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
@@ -22663,7 +22706,7 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -22673,12 +22716,12 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
@@ -22718,7 +22761,7 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
@@ -22748,7 +22791,7 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
@@ -22793,7 +22836,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
@@ -22818,7 +22861,7 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
@@ -22858,12 +22901,12 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
@@ -22903,7 +22946,7 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
@@ -22926,10 +22969,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C7DA03-BE54-4F43-874F-C0C1A54152D0}">
-  <dimension ref="A1:A256"/>
+  <dimension ref="A1:A258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A259" sqref="A259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22994,7 +23037,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -23029,7 +23072,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -23104,7 +23147,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -23184,7 +23227,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
@@ -23349,7 +23392,7 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
@@ -23389,7 +23432,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
@@ -23399,12 +23442,12 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
@@ -23419,7 +23462,7 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
@@ -23694,7 +23737,7 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
@@ -23789,7 +23832,7 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
@@ -23924,7 +23967,7 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
@@ -24084,7 +24127,7 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
@@ -24109,7 +24152,7 @@
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
@@ -24134,7 +24177,7 @@
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
@@ -24215,6 +24258,16 @@
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>3032</v>
       </c>
     </row>
   </sheetData>
@@ -24285,7 +24338,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -24320,7 +24373,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -24545,7 +24598,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
@@ -24615,7 +24668,7 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
@@ -24635,7 +24688,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
@@ -24770,7 +24823,7 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
@@ -24970,7 +25023,7 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
@@ -25005,7 +25058,7 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
@@ -25030,12 +25083,12 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
@@ -25045,7 +25098,7 @@
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">

--- a/skills/Skills v3.xlsx
+++ b/skills/Skills v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703AAF33-BB5D-7F44-9247-92084C705751}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEB3C7F-C92C-BB4C-B24C-1D6FB4B5AEEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="13720" yWindow="460" windowWidth="15080" windowHeight="16200" firstSheet="3" activeTab="9" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="3140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="3140">
   <si>
     <t>Skill</t>
   </si>
@@ -10147,8 +10147,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3C31CE8A-9E26-8247-940B-AE5A4FDA74F1}" name="Table15" displayName="Table15" ref="A1:A292" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:A292" xr:uid="{DDD29182-1E85-2F47-B51B-59011EE663C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3C31CE8A-9E26-8247-940B-AE5A4FDA74F1}" name="Table15" displayName="Table15" ref="A1:A291" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:A291" xr:uid="{DDD29182-1E85-2F47-B51B-59011EE663C6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A287">
     <sortCondition ref="A1:A287"/>
   </sortState>
@@ -10160,10 +10160,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{991904A6-EAD7-504C-A1CD-D337B327E05E}" name="Table11" displayName="Table11" ref="A1:A461" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A1:A461" xr:uid="{9FE3E1A7-0457-9B49-A511-D19235986222}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A461">
-    <sortCondition ref="A1:A461"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{991904A6-EAD7-504C-A1CD-D337B327E05E}" name="Table11" displayName="Table11" ref="A1:A459" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="A1:A459" xr:uid="{9FE3E1A7-0457-9B49-A511-D19235986222}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A459">
+    <sortCondition ref="A1:A459"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7A17FB80-EE5D-FB44-8E49-9C0E49CEA744}" name="Skill" dataDxfId="22"/>
@@ -10225,10 +10225,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{914AC188-EAEE-2C4C-AFC9-7073238B52DC}" name="Table311" displayName="Table311" ref="A1:A262" totalsRowShown="0">
-  <autoFilter ref="A1:A262" xr:uid="{2DF645BF-484A-D846-BB3C-AFD56E1950FF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A262">
-    <sortCondition ref="A1:A262"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{914AC188-EAEE-2C4C-AFC9-7073238B52DC}" name="Table311" displayName="Table311" ref="A1:A259" totalsRowShown="0">
+  <autoFilter ref="A1:A259" xr:uid="{2DF645BF-484A-D846-BB3C-AFD56E1950FF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A259">
+    <sortCondition ref="A1:A259"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7BBBD859-2839-D04B-96B8-F7C480D8C3CB}" name="Skill"/>
@@ -10631,10 +10631,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E964AFBF-F7CF-E04A-AA76-63FFA95065D0}">
-  <dimension ref="A1:A292"/>
+  <dimension ref="A1:A291"/>
   <sheetViews>
-    <sheetView topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="A293" sqref="A293"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="A294" sqref="A294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12094,11 +12094,6 @@
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" s="6" t="s">
         <v>3020</v>
       </c>
     </row>
@@ -12112,10 +12107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDDDC9A-AA80-054F-BCF1-1A8B267248E6}">
-  <dimension ref="A1:A461"/>
+  <dimension ref="A1:A459"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194:XFD194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12579,1852 +12574,1842 @@
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>510</v>
+      <c r="A92" s="6" t="s">
+        <v>1920</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
-        <v>1920</v>
+      <c r="A93" s="5" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
-        <v>1650</v>
+      <c r="A94" s="3" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>1506</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>326</v>
+      <c r="A96" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>447</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>1718</v>
+      <c r="A98" s="5" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="s">
-        <v>1248</v>
+      <c r="A99" s="3" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>1730</v>
+      <c r="A101" s="1" t="s">
+        <v>1877</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>1877</v>
+      <c r="A102" s="5" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="s">
-        <v>1419</v>
+      <c r="A103" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>1692</v>
+      <c r="A104" s="5" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
-        <v>1425</v>
+      <c r="A105" s="3" t="s">
+        <v>1713</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>1713</v>
+      <c r="A106" s="5" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>1894</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
-        <v>1869</v>
+      <c r="A108" s="3" t="s">
+        <v>1343</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>1343</v>
+      <c r="A109" s="5" t="s">
+        <v>1427</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>1427</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>1940</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>1715</v>
+        <v>730</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>730</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>1801</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>1922</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>1658</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
-        <v>1712</v>
+      <c r="A117" s="3" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>1339</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>1631</v>
+      <c r="A119" s="5" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>1660</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>1671</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>1576</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>1929</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>1416</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>1806</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>55</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>1250</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>1921</v>
+        <v>765</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>765</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>1189</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>2145</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="s">
-        <v>1926</v>
+      <c r="A132" s="3" t="s">
+        <v>1923</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>1923</v>
+      <c r="A133" s="5" t="s">
+        <v>2159</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>2159</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>1361</v>
+        <v>450</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="5" t="s">
-        <v>450</v>
+      <c r="A136" s="3" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
-        <v>1412</v>
+      <c r="A137" s="5" t="s">
+        <v>1924</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="5" t="s">
-        <v>1924</v>
+      <c r="A138" s="3" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>1265</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>2433</v>
+      <c r="A140" s="5" t="s">
+        <v>2434</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
-        <v>2434</v>
+      <c r="A141" s="3" t="s">
+        <v>2435</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
-        <v>2435</v>
+      <c r="A142" s="5" t="s">
+        <v>2436</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>2436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5" t="s">
-        <v>1417</v>
+      <c r="A144" s="1" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>1601</v>
+      <c r="A145" s="3" t="s">
+        <v>2437</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
-        <v>2437</v>
+      <c r="A146" s="5" t="s">
+        <v>2438</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5" t="s">
-        <v>2439</v>
+      <c r="A148" s="3" t="s">
+        <v>1530</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>1530</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
-        <v>1414</v>
+      <c r="A150" s="1" t="s">
+        <v>1810</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>1810</v>
+      <c r="A151" t="s">
+        <v>1809</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>1809</v>
+      <c r="A152" s="3" t="s">
+        <v>1927</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>1927</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
-        <v>1811</v>
+      <c r="A154" s="5" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>1327</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>1577</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>13</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5" t="s">
-        <v>1812</v>
+      <c r="A158" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>308</v>
+      <c r="A159" s="5" t="s">
+        <v>2134</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
-        <v>2134</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>1884</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>1813</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>1749</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="5" t="s">
-        <v>2443</v>
+      <c r="A164" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>1690</v>
+      <c r="A165" s="3" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
-        <v>1240</v>
+      <c r="A166" s="5" t="s">
+        <v>3014</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>3014</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>1901</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>14</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>1817</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>1589</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="5" t="s">
-        <v>1571</v>
+      <c r="A172" s="3" t="s">
+        <v>1910</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
-        <v>1910</v>
+      <c r="A173" s="5" t="s">
+        <v>1973</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>1973</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="5" t="s">
-        <v>1905</v>
+      <c r="A175" s="1" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>1581</v>
+      <c r="A176" s="5" t="s">
+        <v>3087</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>3087</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
-        <v>1777</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>1886</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>1579</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>1656</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>1818</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>1340</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>1870</v>
+        <v>722</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
-        <v>721</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>1871</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>1785</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="5" t="s">
-        <v>1695</v>
+      <c r="A189" s="3" t="s">
+        <v>1876</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
-        <v>1876</v>
+      <c r="A190" s="5" t="s">
+        <v>1875</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>1875</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>1317</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>2038</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>3013</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>2230</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="5" t="s">
-        <v>1276</v>
+      <c r="A196" s="3" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
-        <v>1277</v>
+      <c r="A198" s="5" t="s">
+        <v>1872</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>1278</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="5" t="s">
-        <v>1872</v>
+      <c r="A200" s="3" t="s">
+        <v>1825</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>2144</v>
+        <v>540</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
-        <v>1825</v>
+      <c r="A202" s="5" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>540</v>
+        <v>178</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>1640</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>178</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="5" t="s">
-        <v>1688</v>
+      <c r="A206" s="3" t="s">
+        <v>1885</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
-        <v>1930</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>1885</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
-        <v>2161</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="s">
-        <v>1533</v>
+      <c r="A210" s="5" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="5" t="s">
-        <v>1531</v>
+      <c r="A211" s="3" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="5" t="s">
-        <v>1532</v>
+      <c r="A212" s="3" t="s">
+        <v>1903</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
-        <v>1828</v>
+      <c r="A213" s="5" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
-        <v>1903</v>
+      <c r="A214" s="5" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>444</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>1684</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>1474</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>1334</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="5" t="s">
-        <v>1952</v>
+      <c r="A219" s="3" t="s">
+        <v>1878</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>1907</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
-        <v>1878</v>
+      <c r="A221" s="5" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>1880</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>1778</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
-        <v>1585</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
-        <v>1832</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
-        <v>1364</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="5" t="s">
-        <v>1345</v>
+      <c r="A228" s="1" t="s">
+        <v>1931</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
-        <v>1389</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
-        <v>1931</v>
+      <c r="A230" s="7" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="5" t="s">
-        <v>1657</v>
+      <c r="A231" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="7" t="s">
-        <v>1407</v>
+      <c r="A232" s="3" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
-        <v>15</v>
+      <c r="A233" t="s">
+        <v>1908</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="s">
-        <v>1575</v>
+      <c r="A234" s="5" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1908</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
-        <v>1341</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>2312</v>
+      <c r="A237" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>1362</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="5" t="s">
-        <v>16</v>
+      <c r="A239" t="s">
+        <v>1879</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>1839</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>1879</v>
+      <c r="A241" s="1" t="s">
+        <v>1928</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="5" t="s">
-        <v>1767</v>
+      <c r="A242" t="s">
+        <v>1906</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>1928</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>1906</v>
+      <c r="A244" s="5" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>1761</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="5" t="s">
-        <v>1536</v>
+      <c r="A246" s="6" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="1" t="s">
-        <v>1568</v>
+      <c r="A247" s="5" t="s">
+        <v>1685</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="6" t="s">
-        <v>1487</v>
+      <c r="A248" s="5" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="5" t="s">
-        <v>1685</v>
+      <c r="A249" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>1485</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>17</v>
+      <c r="A251" s="1" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
-        <v>3015</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
-        <v>1572</v>
+      <c r="A253" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="5" t="s">
-        <v>1574</v>
+      <c r="A254" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>1918</v>
+      <c r="A256" s="5" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>1573</v>
+      <c r="A257" s="3" t="s">
+        <v>2440</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="5" t="s">
-        <v>1486</v>
+      <c r="A258" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
-        <v>2440</v>
+      <c r="A259" s="5" t="s">
+        <v>1731</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>1932</v>
+      <c r="A260" s="5" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="5" t="s">
-        <v>1731</v>
+      <c r="A261" s="3" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="5" t="s">
-        <v>1747</v>
+      <c r="A262" s="6" t="s">
+        <v>1893</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>1261</v>
+        <v>542</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" s="6" t="s">
-        <v>1893</v>
+      <c r="A264" s="5" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" s="3" t="s">
-        <v>542</v>
+      <c r="A265" s="5" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" s="5" t="s">
-        <v>1508</v>
+      <c r="A266" s="3" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
-        <v>1541</v>
+        <v>719</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>1312</v>
+        <v>717</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" s="5" t="s">
-        <v>719</v>
+      <c r="A269" s="3" t="s">
+        <v>1313</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>717</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>1313</v>
+        <v>729</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>1311</v>
+        <v>723</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" s="3" t="s">
-        <v>729</v>
+      <c r="A273" s="5" t="s">
+        <v>1775</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" s="3" t="s">
-        <v>723</v>
+      <c r="A274" s="5" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
-        <v>1775</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" s="5" t="s">
-        <v>1422</v>
+      <c r="A276" s="3" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" s="5" t="s">
-        <v>1702</v>
+      <c r="A277" s="7" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>1271</v>
+        <v>27</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" s="7" t="s">
-        <v>1405</v>
+      <c r="A279" s="5" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" s="3" t="s">
-        <v>27</v>
+      <c r="A280" s="5" t="s">
+        <v>1744</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" s="5" t="s">
-        <v>1744</v>
+      <c r="A282" s="3" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
-        <v>1717</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" s="3" t="s">
-        <v>1387</v>
+      <c r="A284" s="5" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
-        <v>1670</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
-        <v>1669</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
-        <v>1652</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>1933</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" s="5" t="s">
-        <v>1784</v>
+      <c r="A289" s="3" t="s">
+        <v>1732</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
-        <v>1925</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" s="3" t="s">
-        <v>1732</v>
+      <c r="A291" s="5" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
-        <v>1746</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
-        <v>1365</v>
+        <v>637</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" s="5" t="s">
-        <v>1867</v>
+      <c r="A294" s="1" t="s">
+        <v>1691</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
-        <v>637</v>
+        <v>180</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" s="1" t="s">
-        <v>1691</v>
+      <c r="A296" s="5" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" s="5" t="s">
-        <v>180</v>
+      <c r="A297" s="3" t="s">
+        <v>2441</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>636</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" s="3" t="s">
-        <v>2441</v>
+      <c r="A299" s="5" t="s">
+        <v>1783</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" s="5" t="s">
-        <v>1335</v>
+      <c r="A300" s="3" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>1783</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>724</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" s="5" t="s">
-        <v>2174</v>
+      <c r="A303" s="3" t="s">
+        <v>3016</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>1420</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="3" t="s">
-        <v>3016</v>
+      <c r="A305" s="5" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" s="3" t="s">
-        <v>1842</v>
+      <c r="A306" s="5" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
-        <v>1552</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
-        <v>1241</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>1411</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
-        <v>2136</v>
+        <v>720</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" s="5" t="s">
-        <v>1750</v>
+      <c r="A311" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
-        <v>720</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>306</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" s="5" t="s">
-        <v>2180</v>
+      <c r="A314" s="6" t="s">
+        <v>1673</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>1686</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" s="6" t="s">
-        <v>1673</v>
+      <c r="A316" s="3" t="s">
+        <v>2442</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>1934</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>2442</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" s="3" t="s">
-        <v>1564</v>
+      <c r="A319" s="5" t="s">
+        <v>1780</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" s="3" t="s">
-        <v>1363</v>
+      <c r="A320" s="5" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>1780</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
-        <v>1935</v>
+        <v>541</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" s="5" t="s">
-        <v>1342</v>
+      <c r="A323" s="3" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
-        <v>541</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="3" t="s">
-        <v>1539</v>
+      <c r="A325" s="5" t="s">
+        <v>1991</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
-        <v>1737</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
-        <v>1991</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
-        <v>1848</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
-        <v>1410</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>1984</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>1936</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>1290</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>1738</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>1287</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>1849</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" s="5" t="s">
-        <v>1701</v>
+      <c r="A337" s="6" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" s="5" t="s">
-        <v>1643</v>
+      <c r="A338" s="3" t="s">
+        <v>1781</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" s="6" t="s">
-        <v>1275</v>
+      <c r="A339" s="5" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>1781</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
-        <v>1289</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" s="3" t="s">
-        <v>1237</v>
+      <c r="A342" s="5" t="s">
+        <v>1659</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" s="5" t="s">
-        <v>1242</v>
+      <c r="A343" s="6" t="s">
+        <v>1472</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" s="5" t="s">
-        <v>1659</v>
+      <c r="A344" s="6" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" s="6" t="s">
-        <v>1479</v>
+      <c r="A346" s="3" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" s="6" t="s">
-        <v>1476</v>
+      <c r="A347" s="5" t="s">
+        <v>1481</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>1473</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" s="5" t="s">
-        <v>1481</v>
+      <c r="A349" s="6" t="s">
+        <v>1475</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" s="3" t="s">
-        <v>1480</v>
+      <c r="A350" s="18" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" s="6" t="s">
-        <v>1475</v>
+      <c r="A351" s="5" t="s">
+        <v>1733</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" s="18" t="s">
-        <v>1833</v>
+      <c r="A352" s="5" t="s">
+        <v>1748</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
-        <v>1733</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
-        <v>1344</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
-        <v>1745</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" s="5" t="s">
-        <v>1291</v>
+      <c r="A357" s="1" t="s">
+        <v>1489</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
-        <v>1668</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" s="1" t="s">
-        <v>1489</v>
+      <c r="A359" s="5" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" s="5" t="s">
-        <v>3133</v>
+      <c r="A360" s="1" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" s="5" t="s">
-        <v>1243</v>
+      <c r="A361" s="1" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" s="1" t="s">
-        <v>1937</v>
+      <c r="A362" s="5" t="s">
+        <v>1273</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" s="1" t="s">
-        <v>1488</v>
+      <c r="A363" s="5" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
-        <v>1273</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" s="5" t="s">
-        <v>1272</v>
+      <c r="A365" s="3" t="s">
+        <v>1852</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
-        <v>1696</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" s="3" t="s">
-        <v>1852</v>
+      <c r="A367" s="5" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
-        <v>2142</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" s="5" t="s">
-        <v>1666</v>
+      <c r="A369" s="1" t="s">
+        <v>1477</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
-        <v>1853</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>1477</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" s="5" t="s">
-        <v>1707</v>
+      <c r="A372" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>1938</v>
+        <v>310</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
-        <v>1855</v>
+      <c r="A374" s="5" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" s="1" t="s">
-        <v>310</v>
+      <c r="A375" s="5" t="s">
+        <v>1538</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" s="5" t="s">
-        <v>1582</v>
+      <c r="A376" t="s">
+        <v>2257</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
-        <v>1538</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
-        <v>2257</v>
+      <c r="A378" s="5" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
-        <v>1266</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" s="5" t="s">
-        <v>1267</v>
+      <c r="A380" s="1" t="s">
+        <v>1939</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" s="5" t="s">
-        <v>2160</v>
+      <c r="A381" s="1" t="s">
+        <v>1310</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" s="1" t="s">
-        <v>1939</v>
+      <c r="A382" s="5" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" s="1" t="s">
-        <v>1310</v>
+      <c r="A383" s="5" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" s="5" t="s">
-        <v>1856</v>
+      <c r="A384" t="s">
+        <v>2258</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" s="5" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
-        <v>2259</v>
+      <c r="A387" s="6" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" s="5" t="s">
+        <v>1709</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" s="6" t="s">
-        <v>1403</v>
+      <c r="A389" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="5" t="s">
-        <v>1709</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
-        <v>1565</v>
+      <c r="A391" s="5" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" s="5" t="s">
-        <v>1857</v>
+      <c r="A392" s="3" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
-        <v>1563</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" s="3" t="s">
-        <v>835</v>
+      <c r="A394" s="5" t="s">
+        <v>2176</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="5" t="s">
-        <v>1244</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="5" t="s">
-        <v>2176</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
-        <v>3012</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" s="5" t="s">
-        <v>1252</v>
+      <c r="A398" t="s">
+        <v>1941</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="5" t="s">
-        <v>1641</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>1941</v>
+      <c r="A400" s="5" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
-        <v>1367</v>
+        <v>726</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" s="5" t="s">
-        <v>1281</v>
+      <c r="A402" s="2" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" s="5" t="s">
-        <v>726</v>
+      <c r="A403" s="3" t="s">
+        <v>1873</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" s="2" t="s">
-        <v>1413</v>
+      <c r="A404" s="3" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" s="3" t="s">
-        <v>1873</v>
+      <c r="A405" s="5" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" s="3" t="s">
-        <v>1597</v>
+      <c r="A406" s="5" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
-        <v>1247</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
-        <v>1421</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
-        <v>1598</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" s="5" t="s">
-        <v>1591</v>
+      <c r="A410" s="1" t="s">
+        <v>2260</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
-        <v>1675</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" s="1" t="s">
-        <v>2260</v>
+      <c r="A412" s="3" t="s">
+        <v>1909</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" s="5" t="s">
-        <v>1333</v>
+      <c r="A413" s="3" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" s="3" t="s">
-        <v>1909</v>
+      <c r="A414" s="5" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" s="3" t="s">
-        <v>1426</v>
+      <c r="A415" s="5" t="s">
+        <v>1663</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
-        <v>1942</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
-        <v>1663</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
-        <v>1665</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="5" t="s">
-        <v>1268</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="5" t="s">
-        <v>1943</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
-        <v>1592</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
-        <v>1376</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
-        <v>1944</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="5" t="s">
-        <v>1945</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
-        <v>1490</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="5" t="s">
-        <v>1245</v>
+      <c r="A426" s="3" t="s">
+        <v>1911</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
-        <v>1246</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="3" t="s">
-        <v>1911</v>
+      <c r="A428" s="5" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="5" t="s">
-        <v>1861</v>
+      <c r="A429" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="5" t="s">
-        <v>1662</v>
+      <c r="A430" s="3" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
-        <v>1694</v>
+      <c r="A431" s="5" t="s">
+        <v>1946</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="3" t="s">
-        <v>1263</v>
+      <c r="A432" s="5" t="s">
+        <v>1653</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
-        <v>1946</v>
+        <v>731</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
-        <v>1653</v>
+        <v>725</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="5" t="s">
-        <v>731</v>
+      <c r="A435" s="1" t="s">
+        <v>1676</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="5" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="1" t="s">
-        <v>1676</v>
+      <c r="A437" s="3" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" s="5" t="s">
-        <v>727</v>
+      <c r="A438" s="3" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" s="3" t="s">
-        <v>1661</v>
+      <c r="A439" s="5" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" s="3" t="s">
-        <v>1319</v>
+      <c r="A440" s="5" t="s">
+        <v>1947</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
-        <v>728</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
-        <v>1947</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
-        <v>1735</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
-        <v>1758</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" s="5" t="s">
-        <v>1280</v>
+      <c r="A445" s="3" t="s">
+        <v>1779</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="5" t="s">
-        <v>1687</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" s="3" t="s">
-        <v>1779</v>
+      <c r="A447" s="5" t="s">
+        <v>2143</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="5" t="s">
-        <v>1913</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="5" t="s">
-        <v>2143</v>
+        <v>445</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="5" t="s">
-        <v>1700</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
-        <v>445</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
-        <v>1372</v>
+        <v>535</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
-        <v>1366</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" s="5" t="s">
-        <v>535</v>
+      <c r="A454" s="3" t="s">
+        <v>1912</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="5" t="s">
-        <v>1314</v>
+      <c r="A455" s="3" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>1912</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
-        <v>1262</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>1484</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="3" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" s="3" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -23757,10 +23742,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C7DA03-BE54-4F43-874F-C0C1A54152D0}">
-  <dimension ref="A1:A262"/>
+  <dimension ref="A1:A259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A237" sqref="A237"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153:XFD153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24020,1061 +24005,1046 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>334</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2195</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1803</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1499</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>271</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1518</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1528</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1251</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1396</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>268</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1390</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1471</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1453</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1433</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1542</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>300</v>
+      <c r="A72" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>166</v>
+      <c r="A77" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>272</v>
+      <c r="A78" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>168</v>
+      <c r="A79" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>273</v>
+      <c r="A80" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>169</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>1257</v>
+      <c r="A82" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>239</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1765</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>2198</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1545</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1819</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>274</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1322</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>1445</v>
+      <c r="A90" s="5" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
-        <v>1521</v>
+      <c r="A91" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1517</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>2458</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1543</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>2200</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>275</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1446</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>2201</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1321</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1460</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>252</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>338</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>1434</v>
+      <c r="A106" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1995</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
-        <v>170</v>
+      <c r="A108" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>276</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>256</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1512</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1526</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>236</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>52</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1527</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1462</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>1711</v>
+      <c r="A118" s="5" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1391</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="s">
-        <v>1258</v>
+      <c r="A120" t="s">
+        <v>1398</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1301</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1398</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1830</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1455</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1452</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1996</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1438</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1451</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1997</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1316</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1461</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1444</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>277</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>270</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>4</v>
+      <c r="A136" s="5" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1979</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>1980</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>278</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="s">
-        <v>171</v>
+      <c r="A140" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1511</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>279</v>
+      <c r="A142" s="5" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5" t="s">
-        <v>1259</v>
+      <c r="A144" t="s">
+        <v>1821</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>177</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1821</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1395</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1463</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1467</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1431</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1440</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>245</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>1502</v>
+      <c r="A154" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>2207</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5" t="s">
-        <v>172</v>
+      <c r="A157" t="s">
+        <v>1708</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>246</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1457</v>
+        <v>280</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1708</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1823</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>280</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1742</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1741</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1647</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>281</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1548</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1547</v>
+        <v>294</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>131</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1468</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>2163</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1843</v>
+        <v>307</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>2208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>297</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>284</v>
+      <c r="A183" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1392</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>285</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5" t="s">
-        <v>173</v>
+      <c r="A186" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1464</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>298</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>248</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1436</v>
+        <v>286</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1524</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1523</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>1850</v>
+      <c r="A195" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1304</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>287</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="5" t="s">
-        <v>174</v>
+      <c r="A198" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1500</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1854</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>255</v>
+      <c r="A201" s="1" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>2209</v>
+        <v>292</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1306</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>1437</v>
+      <c r="A204" s="6" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1998</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="6" t="s">
-        <v>1307</v>
+      <c r="A207" s="5" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>249</v>
+      <c r="A208" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1415</v>
+        <v>288</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="5" t="s">
-        <v>1253</v>
+      <c r="A210" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
-        <v>303</v>
+      <c r="A211" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1514</v>
+        <v>289</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1432</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>262</v>
+      <c r="A215" s="1" t="s">
+        <v>1859</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>289</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1787</v>
+        <v>247</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="1" t="s">
-        <v>1859</v>
+      <c r="A218" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1394</v>
+        <v>291</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>247</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>290</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>291</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>3011</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>1863</v>
+      <c r="A225" s="5" t="s">
+        <v>1260</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1441</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1864</v>
+        <v>253</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="5" t="s">
-        <v>1260</v>
+      <c r="A228" t="s">
+        <v>1820</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>242</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>253</v>
+      <c r="A230" s="5" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1820</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1443</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="5" t="s">
-        <v>1256</v>
+      <c r="A233" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1393</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>2459</v>
+      <c r="A235" s="5" t="s">
+        <v>1697</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>254</v>
+      <c r="A236" s="5" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>1450</v>
+      <c r="A237" s="5" t="s">
+        <v>2556</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="5" t="s">
-        <v>1697</v>
+      <c r="A238" t="s">
+        <v>3095</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="5" t="s">
-        <v>1288</v>
+      <c r="A239" t="s">
+        <v>1698</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="5" t="s">
-        <v>2556</v>
+      <c r="A240" s="3" t="s">
+        <v>1698</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>3095</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>1698</v>
+      <c r="A242" s="5" t="s">
+        <v>2707</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="s">
-        <v>1698</v>
+      <c r="A243" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1303</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
-        <v>2707</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1519</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1501</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="5" t="s">
-        <v>1516</v>
+      <c r="A248" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>1625</v>
+      <c r="A249" s="6" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>1447</v>
+      <c r="A250" s="6" t="s">
+        <v>1439</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1646</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="6" t="s">
-        <v>1402</v>
+      <c r="A252" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="6" t="s">
-        <v>1439</v>
+      <c r="A253" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>1302</v>
+      <c r="A254" s="1" t="s">
+        <v>1442</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>1507</v>
+      <c r="A255" s="1" t="s">
+        <v>1466</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>293</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="1" t="s">
-        <v>1442</v>
+      <c r="A257" t="s">
+        <v>3010</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="1" t="s">
-        <v>1466</v>
+      <c r="A258" t="s">
+        <v>1449</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="5" t="s">
+      <c r="A259" s="5" t="s">
         <v>175</v>
       </c>
     </row>

--- a/skills/Skills v3.xlsx
+++ b/skills/Skills v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEB3C7F-C92C-BB4C-B24C-1D6FB4B5AEEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172934D9-077B-5C4B-A4F0-6C2C9013B6E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13720" yWindow="460" windowWidth="15080" windowHeight="16200" firstSheet="3" activeTab="9" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="13720" yWindow="460" windowWidth="15080" windowHeight="16200" activeTab="2" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
@@ -6489,9 +6489,6 @@
     <t>Amazon Web Service (AWS)</t>
   </si>
   <si>
-    <t>Meta Language (ML)</t>
-  </si>
-  <si>
     <t>Object-Oriented Programming (OOP)</t>
   </si>
   <si>
@@ -9463,6 +9460,9 @@
   </si>
   <si>
     <t>Infrastructure as Code (IaS)</t>
+  </si>
+  <si>
+    <t>Meta Language</t>
   </si>
 </sst>
 </file>
@@ -10583,7 +10583,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -10603,12 +10603,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -10633,7 +10633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E964AFBF-F7CF-E04A-AA76-63FFA95065D0}">
   <dimension ref="A1:A291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A294" sqref="A294"/>
     </sheetView>
   </sheetViews>
@@ -10954,7 +10954,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
@@ -11079,7 +11079,7 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -11304,7 +11304,7 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
@@ -11314,7 +11314,7 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
@@ -11384,7 +11384,7 @@
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
@@ -11449,7 +11449,7 @@
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
@@ -11469,7 +11469,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
@@ -11919,7 +11919,7 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
@@ -12079,22 +12079,22 @@
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
     </row>
   </sheetData>
@@ -12395,7 +12395,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -12405,7 +12405,7 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
@@ -12780,7 +12780,7 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
@@ -12810,22 +12810,22 @@
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
@@ -12840,17 +12840,17 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
@@ -12945,7 +12945,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
@@ -12995,7 +12995,7 @@
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
@@ -13080,7 +13080,7 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
@@ -13150,7 +13150,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
@@ -13290,7 +13290,7 @@
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
@@ -13365,7 +13365,7 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
@@ -13400,7 +13400,7 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
@@ -13600,7 +13600,7 @@
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
@@ -13620,7 +13620,7 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
@@ -13630,7 +13630,7 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
@@ -13675,7 +13675,7 @@
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
@@ -13695,7 +13695,7 @@
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
@@ -13905,7 +13905,7 @@
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
@@ -13995,7 +13995,7 @@
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
@@ -14010,7 +14010,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
@@ -14035,7 +14035,7 @@
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
@@ -14045,7 +14045,7 @@
     </row>
     <row r="386" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
@@ -14085,12 +14085,12 @@
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="5" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="5" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
@@ -14165,7 +14165,7 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
@@ -14425,8 +14425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BD6C51-312E-5442-8CD7-FA05F633FD18}">
   <dimension ref="A1:A687"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14446,17 +14446,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -14466,22 +14466,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -14491,7 +14491,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -14506,7 +14506,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -14526,12 +14526,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -14541,7 +14541,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -14551,17 +14551,17 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
@@ -14571,22 +14571,22 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
@@ -14606,17 +14606,17 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
@@ -14631,12 +14631,12 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
@@ -14686,7 +14686,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
@@ -14701,7 +14701,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
@@ -14711,7 +14711,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -14731,7 +14731,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
@@ -14746,17 +14746,17 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -14766,7 +14766,7 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
@@ -14776,7 +14776,7 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
@@ -14786,7 +14786,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
@@ -14806,7 +14806,7 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
@@ -14826,7 +14826,7 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
@@ -14846,12 +14846,12 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
@@ -14861,17 +14861,17 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -14886,7 +14886,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
@@ -14901,7 +14901,7 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
@@ -14956,7 +14956,7 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
@@ -14986,7 +14986,7 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
@@ -15011,7 +15011,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
@@ -15046,7 +15046,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
@@ -15071,7 +15071,7 @@
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
@@ -15081,7 +15081,7 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
@@ -15121,22 +15121,22 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
@@ -15146,7 +15146,7 @@
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
@@ -15156,17 +15156,17 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
@@ -15191,17 +15191,17 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
@@ -15211,7 +15211,7 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
@@ -15221,7 +15221,7 @@
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
@@ -15231,12 +15231,12 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
@@ -15251,17 +15251,17 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
@@ -15271,22 +15271,22 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
@@ -15326,27 +15326,27 @@
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
@@ -15356,17 +15356,17 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
@@ -15376,12 +15376,12 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
@@ -15401,7 +15401,7 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
@@ -15411,7 +15411,7 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
@@ -15426,12 +15426,12 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
@@ -15441,7 +15441,7 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
@@ -15451,12 +15451,12 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
@@ -15471,12 +15471,12 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
@@ -15491,7 +15491,7 @@
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
@@ -15506,32 +15506,32 @@
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
@@ -15546,7 +15546,7 @@
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
@@ -15556,7 +15556,7 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
@@ -15596,17 +15596,17 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
@@ -15616,7 +15616,7 @@
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
@@ -15626,7 +15626,7 @@
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
@@ -15656,12 +15656,12 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
@@ -15671,7 +15671,7 @@
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
@@ -15681,7 +15681,7 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
@@ -15711,17 +15711,17 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
@@ -15761,12 +15761,12 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
@@ -15786,17 +15786,17 @@
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
@@ -15811,12 +15811,12 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
@@ -15831,7 +15831,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
@@ -15851,7 +15851,7 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
@@ -15861,7 +15861,7 @@
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
@@ -15881,7 +15881,7 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
@@ -15891,7 +15891,7 @@
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
@@ -15911,7 +15911,7 @@
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
@@ -15926,7 +15926,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
@@ -15956,7 +15956,7 @@
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
@@ -15971,27 +15971,27 @@
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
@@ -16001,27 +16001,27 @@
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
@@ -16046,22 +16046,22 @@
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
@@ -16076,12 +16076,12 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
@@ -16091,7 +16091,7 @@
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
@@ -16101,7 +16101,7 @@
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
@@ -16111,7 +16111,7 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
@@ -16121,7 +16121,7 @@
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
@@ -16131,7 +16131,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
@@ -16161,7 +16161,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
@@ -16171,7 +16171,7 @@
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
@@ -16181,17 +16181,17 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
@@ -16206,7 +16206,7 @@
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
@@ -16216,17 +16216,17 @@
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>2148</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
@@ -16236,12 +16236,12 @@
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
@@ -16251,27 +16251,27 @@
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
@@ -16286,12 +16286,12 @@
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="5" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="5" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
@@ -16311,32 +16311,32 @@
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="5" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="5" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
@@ -16361,7 +16361,7 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="5" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
@@ -16391,12 +16391,12 @@
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
@@ -16411,12 +16411,12 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="5" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
@@ -16456,37 +16456,37 @@
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="5" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
@@ -16501,17 +16501,17 @@
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="5" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -16521,12 +16521,12 @@
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
@@ -16536,7 +16536,7 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
@@ -16556,12 +16556,12 @@
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="5" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
@@ -16601,7 +16601,7 @@
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
@@ -16626,7 +16626,7 @@
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
@@ -16641,22 +16641,22 @@
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="5" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
@@ -16666,27 +16666,27 @@
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="5" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="5" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="5" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="5" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
@@ -16701,7 +16701,7 @@
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
@@ -16711,7 +16711,7 @@
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
@@ -16726,7 +16726,7 @@
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
@@ -16736,7 +16736,7 @@
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
@@ -16746,12 +16746,12 @@
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="5" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
@@ -16771,7 +16771,7 @@
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
@@ -16831,12 +16831,12 @@
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="5" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="5" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
@@ -16861,7 +16861,7 @@
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="5" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
@@ -16871,17 +16871,17 @@
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="5" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
@@ -16891,12 +16891,12 @@
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="5" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="5" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
@@ -16906,7 +16906,7 @@
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="5" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
@@ -16916,12 +16916,12 @@
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="5" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="5" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
@@ -16931,7 +16931,7 @@
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="5" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
@@ -16946,7 +16946,7 @@
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
@@ -16956,12 +16956,12 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="5" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="5" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
@@ -16976,7 +16976,7 @@
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="5" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
@@ -17021,7 +17021,7 @@
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="5" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
@@ -17036,7 +17036,7 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="5" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
@@ -17051,12 +17051,12 @@
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="5" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="5" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
@@ -17071,12 +17071,12 @@
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="5" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="5" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
@@ -17086,12 +17086,12 @@
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="5" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
@@ -17101,7 +17101,7 @@
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="5" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
@@ -17111,7 +17111,7 @@
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="5" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
@@ -17126,12 +17126,12 @@
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="5" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="5" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
@@ -17151,7 +17151,7 @@
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="5" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -17161,12 +17161,12 @@
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="5" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="5" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
@@ -17181,7 +17181,7 @@
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="5" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
@@ -17191,7 +17191,7 @@
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="5" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.2">
@@ -17201,12 +17201,12 @@
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="18" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="18" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.2">
@@ -17226,22 +17226,22 @@
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="18" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" s="18" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="18" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="18" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.2">
@@ -17251,7 +17251,7 @@
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="18" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.2">
@@ -17266,7 +17266,7 @@
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="18" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.2">
@@ -17276,7 +17276,7 @@
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="18" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.2">
@@ -17286,12 +17286,12 @@
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="18" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="18" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.2">
@@ -17306,17 +17306,17 @@
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="18" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="18" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.2">
@@ -17331,12 +17331,12 @@
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="5" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.2">
@@ -17346,17 +17346,17 @@
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="5" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.2">
@@ -17366,12 +17366,12 @@
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="5" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" s="5" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.2">
@@ -17391,7 +17391,7 @@
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" s="5" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.2">
@@ -17401,7 +17401,7 @@
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="5" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.2">
@@ -17436,7 +17436,7 @@
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" s="5" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.2">
@@ -17456,7 +17456,7 @@
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" s="5" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.2">
@@ -17471,7 +17471,7 @@
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" s="3" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.2">
@@ -17481,7 +17481,7 @@
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" s="5" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.2">
@@ -17491,12 +17491,12 @@
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" s="5" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" s="5" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.2">
@@ -17531,17 +17531,17 @@
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" s="5" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" s="5" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" s="5" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.2">
@@ -17566,7 +17566,7 @@
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" s="5" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.2">
@@ -17576,22 +17576,22 @@
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="5" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" s="5" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" s="5" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.2">
@@ -17601,12 +17601,12 @@
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" s="5" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" s="3" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.2">
@@ -17621,12 +17621,12 @@
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" s="3" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" s="3" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.2">
@@ -17636,7 +17636,7 @@
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" s="3" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.2">
@@ -17656,7 +17656,7 @@
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.2">
@@ -17676,7 +17676,7 @@
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.2">
@@ -17691,7 +17691,7 @@
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" s="3" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.2">
@@ -17716,12 +17716,12 @@
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="3" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="3" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.2">
@@ -17731,7 +17731,7 @@
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.2">
@@ -17771,7 +17771,7 @@
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" s="3" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.2">
@@ -17781,27 +17781,27 @@
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" s="3" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" s="3" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" s="3" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" s="3" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" s="3" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.2">
@@ -17826,12 +17826,12 @@
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" s="3" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="3" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.2">
@@ -17866,7 +17866,7 @@
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" s="3" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
   </sheetData>
@@ -17882,7 +17882,7 @@
   <dimension ref="A1:A495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B471" sqref="B1:B1048576"/>
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17897,17 +17897,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -17932,12 +17932,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -17947,7 +17947,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -17962,12 +17962,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -17992,7 +17992,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -18077,12 +18077,12 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
@@ -18097,7 +18097,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
@@ -18152,22 +18152,22 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -18177,27 +18177,27 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
@@ -18207,12 +18207,12 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -18222,12 +18222,12 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
@@ -18242,22 +18242,22 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
@@ -18322,22 +18322,22 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
@@ -18352,12 +18352,12 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
@@ -18377,7 +18377,7 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
@@ -18407,7 +18407,7 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
@@ -18417,17 +18417,17 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
@@ -18447,7 +18447,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
@@ -18457,17 +18457,17 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
@@ -18492,7 +18492,7 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
@@ -18522,7 +18522,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
@@ -18532,7 +18532,7 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
@@ -18547,7 +18547,7 @@
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
@@ -18577,7 +18577,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -18587,7 +18587,7 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
@@ -18607,12 +18607,12 @@
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
@@ -18622,12 +18622,12 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
@@ -18637,7 +18637,7 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
@@ -18692,12 +18692,12 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
@@ -18707,12 +18707,12 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
@@ -18732,12 +18732,12 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
@@ -18752,7 +18752,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -18762,7 +18762,7 @@
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
@@ -18782,12 +18782,12 @@
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
@@ -18797,12 +18797,12 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
@@ -18817,7 +18817,7 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
@@ -18827,12 +18827,12 @@
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
@@ -18852,7 +18852,7 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
@@ -18867,12 +18867,12 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
@@ -18882,12 +18882,12 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
@@ -18897,7 +18897,7 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
@@ -18907,7 +18907,7 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
@@ -18917,12 +18917,12 @@
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
@@ -18932,12 +18932,12 @@
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
@@ -18952,7 +18952,7 @@
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
@@ -18977,22 +18977,22 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
@@ -19007,22 +19007,22 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
@@ -19037,7 +19037,7 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
@@ -19052,7 +19052,7 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
@@ -19077,12 +19077,12 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
@@ -19097,12 +19097,12 @@
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
@@ -19117,7 +19117,7 @@
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
@@ -19127,7 +19127,7 @@
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
@@ -19137,7 +19137,7 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
@@ -19147,7 +19147,7 @@
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
@@ -19172,12 +19172,12 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
@@ -19202,22 +19202,22 @@
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
@@ -19227,7 +19227,7 @@
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
@@ -19252,17 +19252,17 @@
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
@@ -19292,7 +19292,7 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
@@ -19302,17 +19302,17 @@
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
@@ -19322,17 +19322,17 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
@@ -19342,7 +19342,7 @@
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
@@ -19357,7 +19357,7 @@
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
@@ -19372,12 +19372,12 @@
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
@@ -19387,7 +19387,7 @@
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
@@ -19397,7 +19397,7 @@
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
@@ -19412,7 +19412,7 @@
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
@@ -19427,17 +19427,17 @@
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
@@ -19447,7 +19447,7 @@
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
@@ -19457,17 +19457,17 @@
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
@@ -19487,7 +19487,7 @@
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
@@ -19507,7 +19507,7 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
@@ -19532,7 +19532,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
@@ -19542,12 +19542,12 @@
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
@@ -19562,7 +19562,7 @@
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
@@ -19582,12 +19582,12 @@
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
@@ -19597,12 +19597,12 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
@@ -19612,27 +19612,27 @@
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
@@ -19642,7 +19642,7 @@
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
@@ -19657,7 +19657,7 @@
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
@@ -19677,7 +19677,7 @@
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
@@ -19697,7 +19697,7 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
@@ -19707,7 +19707,7 @@
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
@@ -19717,7 +19717,7 @@
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
@@ -19737,7 +19737,7 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
@@ -19772,12 +19772,12 @@
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="5" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
@@ -19787,12 +19787,12 @@
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="5" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
@@ -19812,17 +19812,17 @@
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="5" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="5" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
@@ -19832,7 +19832,7 @@
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
@@ -19842,12 +19842,12 @@
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="5" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
@@ -19867,52 +19867,52 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="5" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="5" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="5" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="5" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="5" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="5" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
@@ -19927,7 +19927,7 @@
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
@@ -19947,12 +19947,12 @@
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="5" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
@@ -19977,7 +19977,7 @@
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
@@ -20037,7 +20037,7 @@
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="5" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
@@ -20072,7 +20072,7 @@
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="18" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
@@ -20107,7 +20107,7 @@
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
@@ -20162,12 +20162,12 @@
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
@@ -20192,7 +20192,7 @@
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
@@ -20217,7 +20217,7 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="5" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
@@ -20227,17 +20227,17 @@
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="5" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="5" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
@@ -20247,7 +20247,7 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="5" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
@@ -20297,7 +20297,7 @@
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
@@ -20307,7 +20307,7 @@
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
@@ -20357,7 +20357,7 @@
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
@@ -20377,8 +20377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAE9924-44EA-7445-9E40-DADA67D208A9}">
   <dimension ref="A1:A550"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B355" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20393,7 +20393,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -20403,32 +20403,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -20438,7 +20438,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -20453,22 +20453,22 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -20483,32 +20483,32 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -20518,87 +20518,87 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
@@ -20608,7 +20608,7 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
@@ -20618,22 +20618,22 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
@@ -20643,37 +20643,37 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
@@ -20693,7 +20693,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
@@ -20713,7 +20713,7 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
@@ -20733,17 +20733,17 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
@@ -20753,12 +20753,12 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
@@ -20768,32 +20768,32 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
@@ -20803,37 +20803,37 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
@@ -20853,32 +20853,32 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
@@ -20893,7 +20893,7 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
@@ -20908,12 +20908,12 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
@@ -20928,7 +20928,7 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
@@ -20938,67 +20938,67 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
@@ -21008,17 +21008,17 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
@@ -21028,12 +21028,12 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
@@ -21043,7 +21043,7 @@
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
@@ -21053,52 +21053,52 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
@@ -21108,57 +21108,57 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
@@ -21168,27 +21168,27 @@
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
@@ -21198,7 +21198,7 @@
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
@@ -21208,32 +21208,32 @@
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
@@ -21243,62 +21243,62 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
@@ -21313,7 +21313,7 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
@@ -21323,17 +21323,17 @@
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
@@ -21343,22 +21343,22 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
@@ -21378,12 +21378,12 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
@@ -21393,7 +21393,7 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
@@ -21433,7 +21433,7 @@
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
@@ -21453,17 +21453,17 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
@@ -21473,12 +21473,12 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
@@ -21488,12 +21488,12 @@
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
@@ -21503,27 +21503,27 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
@@ -21548,7 +21548,7 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
@@ -21573,17 +21573,17 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
@@ -21598,77 +21598,77 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
@@ -21678,72 +21678,72 @@
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
@@ -21753,7 +21753,7 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
@@ -21763,12 +21763,12 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
@@ -21778,27 +21778,27 @@
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
@@ -21808,7 +21808,7 @@
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
@@ -21823,42 +21823,42 @@
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
@@ -21868,12 +21868,12 @@
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
@@ -21883,62 +21883,62 @@
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
@@ -21948,12 +21948,12 @@
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
@@ -21963,7 +21963,7 @@
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
@@ -21978,12 +21978,12 @@
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
@@ -21998,57 +21998,57 @@
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
@@ -22058,17 +22058,17 @@
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
@@ -22078,7 +22078,7 @@
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
@@ -22088,7 +22088,7 @@
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
@@ -22103,22 +22103,22 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
@@ -22128,7 +22128,7 @@
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
@@ -22143,7 +22143,7 @@
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
@@ -22163,22 +22163,22 @@
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
@@ -22193,17 +22193,17 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
@@ -22213,7 +22213,7 @@
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
@@ -22243,7 +22243,7 @@
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="5" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
@@ -22253,7 +22253,7 @@
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
@@ -22278,7 +22278,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
@@ -22293,72 +22293,72 @@
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="5" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="19" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="5" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="19" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="19" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="5" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="5" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
@@ -22368,42 +22368,42 @@
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="5" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="5" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="5" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
@@ -22418,42 +22418,42 @@
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="5" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="5" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
@@ -22463,17 +22463,17 @@
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
@@ -22488,17 +22488,17 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
@@ -22508,12 +22508,12 @@
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="5" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
@@ -22523,22 +22523,22 @@
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="5" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="5" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="5" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="18" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
@@ -22548,17 +22548,17 @@
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
@@ -22568,12 +22568,12 @@
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="5" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
@@ -22588,7 +22588,7 @@
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
@@ -22598,52 +22598,52 @@
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="5" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="5" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="5" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="5" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="19" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
@@ -22663,37 +22663,37 @@
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="5" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
@@ -22703,27 +22703,27 @@
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="5" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="5" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="5" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
@@ -22733,22 +22733,22 @@
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="5" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="5" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="5" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="5" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
@@ -22758,12 +22758,12 @@
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="5" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="5" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
@@ -22773,42 +22773,42 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="5" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="5" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="5" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="5" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="5" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="5" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="5" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="5" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
@@ -22818,12 +22818,12 @@
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
@@ -22833,17 +22833,17 @@
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="5" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="5" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
@@ -22858,37 +22858,37 @@
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="5" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="5" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="5" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="5" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="5" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="5" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="5" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
@@ -22898,32 +22898,32 @@
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="5" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="5" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="5" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="5" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="5" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
@@ -22933,17 +22933,17 @@
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="5" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="5" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="5" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
@@ -22958,17 +22958,17 @@
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="5" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="5" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="5" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
@@ -22978,7 +22978,7 @@
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="5" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
@@ -22988,7 +22988,7 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="5" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
@@ -22998,17 +22998,17 @@
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="5" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="5" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="5" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
@@ -23018,67 +23018,67 @@
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="5" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="5" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="5" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="5" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="5" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="5" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="5" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="5" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
@@ -23098,27 +23098,27 @@
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
@@ -23128,7 +23128,7 @@
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
@@ -23194,7 +23194,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -23279,7 +23279,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -23289,7 +23289,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
@@ -23304,7 +23304,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -23334,7 +23334,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
@@ -23384,7 +23384,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
@@ -23399,7 +23399,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -23414,7 +23414,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
@@ -23424,7 +23424,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
@@ -23479,7 +23479,7 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -23489,12 +23489,12 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
@@ -23534,7 +23534,7 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
@@ -23554,7 +23554,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
@@ -23564,7 +23564,7 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
@@ -23609,7 +23609,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
@@ -23634,7 +23634,7 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
@@ -23674,12 +23674,12 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
@@ -23719,7 +23719,7 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
@@ -23810,7 +23810,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -23845,7 +23845,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -23920,7 +23920,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -23955,7 +23955,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
@@ -24005,7 +24005,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
@@ -24170,7 +24170,7 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
@@ -24210,7 +24210,7 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
@@ -24220,12 +24220,12 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
@@ -24240,7 +24240,7 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
@@ -24515,7 +24515,7 @@
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
@@ -24595,7 +24595,7 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
@@ -24610,7 +24610,7 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
@@ -24745,7 +24745,7 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
@@ -24855,7 +24855,7 @@
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
@@ -24910,7 +24910,7 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
@@ -24935,12 +24935,12 @@
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
@@ -24960,7 +24960,7 @@
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
@@ -25035,7 +25035,7 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
@@ -25116,7 +25116,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -25151,7 +25151,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -25376,7 +25376,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
@@ -25446,7 +25446,7 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
@@ -25466,7 +25466,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
@@ -25601,7 +25601,7 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
@@ -25801,7 +25801,7 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
@@ -25836,7 +25836,7 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
@@ -25861,12 +25861,12 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
@@ -25876,7 +25876,7 @@
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
@@ -26482,37 +26482,37 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
     </row>
   </sheetData>

--- a/skills/Skills v3.xlsx
+++ b/skills/Skills v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172934D9-077B-5C4B-A4F0-6C2C9013B6E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43469104-EF7E-1647-8BCC-9CBDBBDADAC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13720" yWindow="460" windowWidth="15080" windowHeight="16200" activeTab="2" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
@@ -10173,10 +10173,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{719CD227-2781-DA4C-8A8D-A375AB8B579F}" name="Table1113" displayName="Table1113" ref="A1:A687" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A1:A687" xr:uid="{9FE3E1A7-0457-9B49-A511-D19235986222}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A687">
-    <sortCondition ref="A1:A688"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{719CD227-2781-DA4C-8A8D-A375AB8B579F}" name="Table1113" displayName="Table1113" ref="A1:A682" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="A1:A682" xr:uid="{9FE3E1A7-0457-9B49-A511-D19235986222}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A682">
+    <sortCondition ref="A1:A683"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{67A455AB-BECD-D740-AF7D-20F4D3E6D25F}" name="Skill" dataDxfId="18"/>
@@ -12107,10 +12107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDDDC9A-AA80-054F-BCF1-1A8B267248E6}">
-  <dimension ref="A1:A459"/>
+  <dimension ref="A1:A464"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194:XFD194"/>
+    <sheetView topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="A460" sqref="A460:XFD464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14413,6 +14413,31 @@
         <v>1283</v>
       </c>
     </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14423,10 +14448,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BD6C51-312E-5442-8CD7-FA05F633FD18}">
-  <dimension ref="A1:A687"/>
+  <dimension ref="A1:A682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15931,1941 +15956,1916 @@
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>554</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>550</v>
+        <v>805</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" s="3" t="s">
-        <v>551</v>
+      <c r="A302" s="5" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" s="3" t="s">
-        <v>549</v>
+      <c r="A303" s="5" t="s">
+        <v>2322</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
-        <v>555</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="5" t="s">
-        <v>3116</v>
+      <c r="A305" s="3" t="s">
+        <v>2542</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" s="5" t="s">
-        <v>805</v>
+      <c r="A306" s="3" t="s">
+        <v>2467</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" s="5" t="s">
-        <v>476</v>
+      <c r="A307" s="3" t="s">
+        <v>2468</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" s="5" t="s">
-        <v>2322</v>
+      <c r="A308" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>2466</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>2542</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" s="3" t="s">
-        <v>2467</v>
+      <c r="A311" s="5" t="s">
+        <v>3026</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" s="3" t="s">
-        <v>2468</v>
+      <c r="A312" s="5" t="s">
+        <v>3030</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>486</v>
+      <c r="A313" s="5" t="s">
+        <v>2470</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" s="5" t="s">
-        <v>2469</v>
+      <c r="A314" s="3" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" s="3" t="s">
-        <v>2545</v>
+      <c r="A315" s="5" t="s">
+        <v>1236</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
-        <v>3026</v>
+        <v>813</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
-        <v>3030</v>
+        <v>812</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" s="5" t="s">
-        <v>2470</v>
+      <c r="A318" s="3" t="s">
+        <v>2366</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>1220</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" s="5" t="s">
-        <v>1236</v>
+      <c r="A320" s="3" t="s">
+        <v>2425</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>813</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
-        <v>812</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" s="3" t="s">
-        <v>2366</v>
+      <c r="A323" s="5" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" s="3" t="s">
-        <v>3100</v>
+      <c r="A324" s="5" t="s">
+        <v>2480</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="3" t="s">
-        <v>2425</v>
+      <c r="A325" s="5" t="s">
+        <v>3082</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" s="5" t="s">
-        <v>2562</v>
+      <c r="A326" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
-        <v>1146</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
-        <v>1151</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
-        <v>2480</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>3082</v>
+        <v>477</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>713</v>
+      <c r="A331" s="3" t="s">
+        <v>2530</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>2296</v>
+        <v>545</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>1179</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>2505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>477</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" s="3" t="s">
-        <v>2530</v>
+      <c r="A336" s="5" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
-        <v>3117</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" s="5" t="s">
-        <v>516</v>
+      <c r="A339" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" s="5" t="s">
-        <v>2473</v>
+      <c r="A340" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
-        <v>441</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
-        <v>1180</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" s="1" t="s">
-        <v>574</v>
+      <c r="A344" s="5" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>442</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
-        <v>3084</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" s="5" t="s">
-        <v>564</v>
+      <c r="A347" s="3" t="s">
+        <v>2217</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
-        <v>2531</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" s="3" t="s">
-        <v>2456</v>
+      <c r="A350" s="5" t="s">
+        <v>2380</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
-        <v>2169</v>
+        <v>513</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" s="3" t="s">
-        <v>2217</v>
+      <c r="A352" s="5" t="s">
+        <v>2374</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" s="5" t="s">
-        <v>2138</v>
+      <c r="A353" t="s">
+        <v>3139</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
-        <v>525</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
-        <v>2380</v>
+        <v>565</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
-        <v>513</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" s="5" t="s">
-        <v>2374</v>
+      <c r="A357" s="3" t="s">
+        <v>2391</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>3139</v>
+      <c r="A358" s="5" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
-        <v>2543</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
-        <v>565</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" s="5" t="s">
-        <v>2171</v>
+      <c r="A361" s="1" t="s">
+        <v>2167</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" s="3" t="s">
-        <v>2391</v>
+      <c r="A362" s="5" t="s">
+        <v>2332</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
-        <v>1357</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
-        <v>2563</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
-        <v>3119</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" s="1" t="s">
-        <v>2167</v>
+      <c r="A366" s="5" t="s">
+        <v>2388</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
-        <v>2332</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
-        <v>2426</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
-        <v>1140</v>
+        <v>478</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="5" t="s">
-        <v>2388</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="5" t="s">
-        <v>2266</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
-        <v>1109</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
-        <v>478</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" s="5" t="s">
-        <v>1722</v>
+      <c r="A375" s="3" t="s">
+        <v>2342</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="5" t="s">
-        <v>3118</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
-        <v>2527</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" s="5" t="s">
-        <v>3088</v>
+      <c r="A378" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" s="5" t="s">
-        <v>3089</v>
+      <c r="A379" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" s="3" t="s">
-        <v>2342</v>
+      <c r="A380" s="1" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
-        <v>2323</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="5" t="s">
-        <v>1157</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>1160</v>
+      <c r="A383" s="5" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>1158</v>
+      <c r="A384" s="5" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" s="1" t="s">
-        <v>1159</v>
+      <c r="A385" s="5" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="5" t="s">
-        <v>2459</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" s="5" t="s">
-        <v>1164</v>
+      <c r="A387" s="3" t="s">
+        <v>2312</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="5" t="s">
-        <v>1155</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" s="5" t="s">
-        <v>1105</v>
+      <c r="A389" s="3" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="5" t="s">
-        <v>1104</v>
+        <v>780</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="5" t="s">
-        <v>1166</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" s="3" t="s">
-        <v>2312</v>
+      <c r="A392" s="5" t="s">
+        <v>2554</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
-        <v>2313</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" s="3" t="s">
-        <v>524</v>
+      <c r="A394" s="5" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" s="5" t="s">
-        <v>780</v>
+      <c r="A395" s="6" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" s="5" t="s">
-        <v>2375</v>
+      <c r="A396" s="1" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" s="5" t="s">
-        <v>2554</v>
+      <c r="A397" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" s="5" t="s">
-        <v>1144</v>
+      <c r="A398" s="3" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" s="5" t="s">
-        <v>508</v>
+      <c r="A399" s="3" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" s="6" t="s">
-        <v>579</v>
+      <c r="A400" s="5" t="s">
+        <v>2396</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" s="1" t="s">
-        <v>803</v>
+      <c r="A401" s="5" t="s">
+        <v>3097</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" s="1" t="s">
-        <v>119</v>
+      <c r="A402" s="5" t="s">
+        <v>2150</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" s="3" t="s">
-        <v>753</v>
+      <c r="A403" s="5" t="s">
+        <v>3096</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" s="3" t="s">
-        <v>507</v>
+      <c r="A404" s="5" t="s">
+        <v>2148</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
-        <v>2396</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" s="5" t="s">
-        <v>3097</v>
+      <c r="A406" s="3" t="s">
+        <v>2474</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
-        <v>2150</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" s="5" t="s">
-        <v>3096</v>
+      <c r="A408" s="3" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
-        <v>2148</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
-        <v>2292</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" s="3" t="s">
-        <v>2474</v>
+      <c r="A411" s="5" t="s">
+        <v>3127</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" s="5" t="s">
-        <v>1181</v>
+      <c r="A412" s="3" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>479</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" s="5" t="s">
-        <v>2297</v>
+      <c r="A414" s="3" t="s">
+        <v>2532</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" s="5" t="s">
-        <v>2343</v>
+      <c r="A415" s="3" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
-        <v>3127</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" s="3" t="s">
-        <v>1141</v>
+      <c r="A417" s="5" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" s="3" t="s">
-        <v>2293</v>
+      <c r="A418" s="5" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>2532</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" s="3" t="s">
-        <v>1161</v>
+      <c r="A420" s="5" t="s">
+        <v>2333</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
-        <v>2294</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
-        <v>781</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
-        <v>1330</v>
+        <v>806</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>1169</v>
+        <v>566</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
-        <v>2333</v>
+        <v>754</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="5" t="s">
-        <v>2564</v>
+      <c r="A426" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
-        <v>1359</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="5" t="s">
-        <v>806</v>
+      <c r="A428" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="3" t="s">
-        <v>566</v>
+      <c r="A429" s="5" t="s">
+        <v>2565</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="5" t="s">
-        <v>754</v>
+      <c r="A430" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" s="1" t="s">
-        <v>380</v>
+      <c r="A431" s="5" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="5" t="s">
-        <v>1703</v>
+      <c r="A432" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" s="1" t="s">
-        <v>387</v>
+      <c r="A433" s="5" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
-        <v>2565</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="1" t="s">
-        <v>438</v>
+      <c r="A435" s="5" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" s="5" t="s">
-        <v>531</v>
+      <c r="A436" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="1" t="s">
-        <v>461</v>
+      <c r="A437" s="5" t="s">
+        <v>2350</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="5" t="s">
-        <v>1328</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
-        <v>2376</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="5" t="s">
-        <v>1085</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
-        <v>2350</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
-        <v>2419</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
-        <v>3120</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="5" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" s="1" t="s">
-        <v>481</v>
+      <c r="A446" s="3" t="s">
+        <v>2367</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="5" t="s">
-        <v>2501</v>
+        <v>801</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" s="5" t="s">
-        <v>2502</v>
+      <c r="A448" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="5" t="s">
-        <v>2503</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" s="5" t="s">
-        <v>2504</v>
+      <c r="A450" s="6" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>2367</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" s="5" t="s">
-        <v>801</v>
+      <c r="A452" s="6" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" s="1" t="s">
-        <v>482</v>
+      <c r="A453" s="6" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
-        <v>2334</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="6" t="s">
-        <v>557</v>
+      <c r="A455" s="5" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" s="3" t="s">
-        <v>2558</v>
+      <c r="A456" s="5" t="s">
+        <v>2384</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" s="6" t="s">
-        <v>451</v>
+      <c r="A457" s="1" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" s="6" t="s">
-        <v>1165</v>
+      <c r="A458" s="5" t="s">
+        <v>3134</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
-        <v>3068</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="5" t="s">
-        <v>1084</v>
+      <c r="A460" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
-        <v>2384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" s="1" t="s">
-        <v>538</v>
+      <c r="A462" s="6" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="5" t="s">
-        <v>3134</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" s="5" t="s">
-        <v>2403</v>
+      <c r="A464" s="6" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" s="1" t="s">
-        <v>20</v>
+      <c r="A465" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" s="5" t="s">
-        <v>395</v>
+      <c r="A466" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" s="6" t="s">
-        <v>392</v>
+      <c r="A467" s="1" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
-        <v>2218</v>
+        <v>785</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" s="6" t="s">
-        <v>501</v>
+      <c r="A469" s="5" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
-        <v>536</v>
+      <c r="A470" s="5" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
-        <v>483</v>
+      <c r="A471" s="5" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
-        <v>751</v>
+        <v>488</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" s="5" t="s">
-        <v>785</v>
+      <c r="A473" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="5" t="s">
-        <v>786</v>
+        <v>408</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="5" t="s">
-        <v>807</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="5" t="s">
-        <v>809</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" s="1" t="s">
-        <v>488</v>
+      <c r="A477" s="5" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" t="s">
-        <v>1358</v>
+      <c r="A478" s="5" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="5" t="s">
-        <v>408</v>
+        <v>759</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="5" t="s">
-        <v>2165</v>
+        <v>520</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="5" t="s">
-        <v>2559</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="5" t="s">
-        <v>795</v>
+        <v>546</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="5" t="s">
-        <v>757</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="5" t="s">
-        <v>759</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="5" t="s">
-        <v>520</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="5" t="s">
-        <v>2351</v>
+        <v>514</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
-        <v>546</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
-        <v>3122</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="5" t="s">
-        <v>3121</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
-        <v>3123</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="5" t="s">
-        <v>514</v>
+        <v>383</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="5" t="s">
-        <v>2471</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="5" t="s">
-        <v>2514</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="5" t="s">
-        <v>1094</v>
+        <v>714</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="5" t="s">
-        <v>2472</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="5" t="s">
-        <v>383</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" s="5" t="s">
-        <v>2166</v>
+      <c r="A497" s="1" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" s="5" t="s">
-        <v>3137</v>
+      <c r="A498" t="s">
+        <v>3032</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="5" t="s">
-        <v>714</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="5" t="s">
-        <v>2427</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="5" t="s">
-        <v>1106</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>749</v>
+        <v>405</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
-        <v>3032</v>
+      <c r="A503" s="5" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="5" t="s">
-        <v>1381</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="5" t="s">
-        <v>2578</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="5" t="s">
-        <v>3033</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A507" s="1" t="s">
-        <v>405</v>
+      <c r="A507" s="5" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A508" s="5" t="s">
-        <v>790</v>
+      <c r="A508" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="5" t="s">
-        <v>2344</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="5" t="s">
-        <v>1171</v>
+        <v>811</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="5" t="s">
-        <v>1082</v>
+        <v>505</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="5" t="s">
-        <v>1559</v>
+        <v>484</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A513" t="s">
-        <v>489</v>
+      <c r="A513" s="5" t="s">
+        <v>2324</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="5" t="s">
-        <v>1174</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A515" s="5" t="s">
-        <v>811</v>
+      <c r="A515" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="5" t="s">
-        <v>505</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A517" s="5" t="s">
-        <v>484</v>
+      <c r="A517" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A518" s="5" t="s">
-        <v>2324</v>
+      <c r="A518" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="5" t="s">
-        <v>1332</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A520" t="s">
-        <v>490</v>
+      <c r="A520" s="5" t="s">
+        <v>2428</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="5" t="s">
-        <v>3124</v>
+        <v>500</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A522" t="s">
-        <v>491</v>
+      <c r="A522" s="5" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A523" s="1" t="s">
-        <v>124</v>
+      <c r="A523" s="5" t="s">
+        <v>3074</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="5" t="s">
-        <v>2513</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A525" s="5" t="s">
-        <v>2428</v>
+      <c r="A525" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="5" t="s">
-        <v>500</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A527" s="5" t="s">
-        <v>547</v>
+      <c r="A527" s="3" t="s">
+        <v>2509</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A528" s="5" t="s">
-        <v>3074</v>
+      <c r="A528" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="5" t="s">
-        <v>2352</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A530" t="s">
-        <v>570</v>
+      <c r="A530" s="1" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="5" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A532" s="3" t="s">
-        <v>2509</v>
+      <c r="A532" s="5" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A533" t="s">
-        <v>748</v>
+      <c r="A533" s="5" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="5" t="s">
-        <v>3125</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A535" s="1" t="s">
-        <v>747</v>
+      <c r="A535" s="5" t="s">
+        <v>2345</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A536" s="5" t="s">
-        <v>2482</v>
+      <c r="A536" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="5" t="s">
-        <v>1182</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="5" t="s">
-        <v>1183</v>
+        <v>718</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="5" t="s">
-        <v>2353</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="5" t="s">
-        <v>2345</v>
+        <v>822</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A541" t="s">
-        <v>492</v>
+      <c r="A541" s="5" t="s">
+        <v>3103</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="5" t="s">
-        <v>1117</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="5" t="s">
-        <v>718</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="5" t="s">
-        <v>2528</v>
+        <v>19</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="5" t="s">
-        <v>822</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="5" t="s">
-        <v>3103</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="5" t="s">
-        <v>3104</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A548" s="5" t="s">
-        <v>1522</v>
+      <c r="A548" s="6" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A549" s="5" t="s">
-        <v>19</v>
+      <c r="A549" s="18" t="s">
+        <v>2404</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A550" s="5" t="s">
-        <v>2517</v>
+      <c r="A550" s="18" t="s">
+        <v>3105</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A551" s="5" t="s">
-        <v>1858</v>
+      <c r="A551" s="18" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A552" s="5" t="s">
-        <v>3130</v>
+      <c r="A552" s="18" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A553" s="6" t="s">
-        <v>369</v>
+      <c r="A553" s="18" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="18" t="s">
-        <v>2404</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="18" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="18" t="s">
-        <v>1723</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="18" t="s">
-        <v>1139</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="18" t="s">
-        <v>1219</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="18" t="s">
-        <v>3101</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A560" s="18" t="s">
-        <v>3108</v>
+      <c r="A560" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="18" t="s">
-        <v>3131</v>
+        <v>798</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="18" t="s">
-        <v>3102</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="18" t="s">
-        <v>1566</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="18" t="s">
-        <v>2518</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="17" t="s">
-        <v>53</v>
+        <v>571</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="18" t="s">
-        <v>798</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="18" t="s">
-        <v>2489</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="18" t="s">
-        <v>1112</v>
+        <v>792</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="18" t="s">
-        <v>2533</v>
+        <v>791</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A570" s="17" t="s">
-        <v>571</v>
+      <c r="A570" s="18" t="s">
+        <v>2560</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="18" t="s">
-        <v>2354</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A572" s="18" t="s">
-        <v>2534</v>
+      <c r="A572" s="3" t="s">
+        <v>2240</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A573" s="18" t="s">
-        <v>792</v>
+      <c r="A573" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A574" s="18" t="s">
-        <v>791</v>
+      <c r="A574" s="5" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A575" s="18" t="s">
-        <v>2560</v>
+      <c r="A575" s="3" t="s">
+        <v>3109</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A576" s="18" t="s">
-        <v>2368</v>
+      <c r="A576" s="5" t="s">
+        <v>2402</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A577" s="3" t="s">
-        <v>2240</v>
+      <c r="A577" s="5" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A578" s="1" t="s">
-        <v>449</v>
+      <c r="A578" s="3" t="s">
+        <v>2335</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="5" t="s">
-        <v>556</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A580" s="3" t="s">
-        <v>3109</v>
+      <c r="A580" s="1" t="s">
+        <v>2168</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="5" t="s">
-        <v>2402</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="5" t="s">
-        <v>787</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A583" s="3" t="s">
-        <v>2335</v>
+      <c r="A583" s="5" t="s">
+        <v>2484</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="5" t="s">
-        <v>2336</v>
+        <v>537</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A585" s="1" t="s">
-        <v>2168</v>
+      <c r="A585" s="5" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A586" s="5" t="s">
-        <v>1608</v>
+      <c r="A586" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="5" t="s">
-        <v>2483</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A588" s="5" t="s">
-        <v>2484</v>
+      <c r="A588" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" s="5" t="s">
-        <v>537</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="5" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A591" t="s">
-        <v>1143</v>
+      <c r="A591" s="5" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A592" s="5" t="s">
-        <v>2325</v>
+      <c r="A592" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A593" t="s">
-        <v>384</v>
+      <c r="A593" s="5" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="5" t="s">
-        <v>2219</v>
+        <v>569</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A595" s="5" t="s">
-        <v>511</v>
+      <c r="A595" s="6" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" s="5" t="s">
-        <v>567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A597" t="s">
-        <v>485</v>
+      <c r="A597" s="5" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A598" s="5" t="s">
-        <v>1163</v>
+      <c r="A598" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" s="5" t="s">
-        <v>569</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A600" s="6" t="s">
-        <v>396</v>
+      <c r="A600" s="5" t="s">
+        <v>2549</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A601" s="5" t="s">
-        <v>2566</v>
+      <c r="A601" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="5" t="s">
-        <v>1088</v>
+        <v>517</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A603" t="s">
-        <v>494</v>
+      <c r="A603" s="3" t="s">
+        <v>3126</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A604" s="5" t="s">
-        <v>1150</v>
+      <c r="A604" s="3" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" s="5" t="s">
-        <v>2549</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>493</v>
+        <v>715</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" s="5" t="s">
-        <v>517</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A608" s="3" t="s">
-        <v>3126</v>
+      <c r="A608" s="5" t="s">
+        <v>2337</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A609" s="3" t="s">
-        <v>1269</v>
+      <c r="A609" s="5" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A610" s="5" t="s">
-        <v>2377</v>
+      <c r="A610" s="6" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A611" s="1" t="s">
-        <v>715</v>
+      <c r="A611" s="5" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A612" s="5" t="s">
-        <v>2170</v>
+      <c r="A612" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" s="5" t="s">
-        <v>2337</v>
+        <v>409</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" s="5" t="s">
-        <v>1145</v>
+        <v>758</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A615" s="6" t="s">
-        <v>1295</v>
+      <c r="A615" s="5" t="s">
+        <v>2369</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" s="5" t="s">
-        <v>534</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A617" s="1" t="s">
-        <v>133</v>
+      <c r="A617" s="5" t="s">
+        <v>2355</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" s="5" t="s">
-        <v>409</v>
+        <v>575</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="5" t="s">
-        <v>758</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A620" s="5" t="s">
-        <v>2369</v>
+      <c r="A620" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" s="5" t="s">
-        <v>2338</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" s="5" t="s">
-        <v>2355</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" s="5" t="s">
-        <v>575</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" s="5" t="s">
-        <v>1604</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A625" s="1" t="s">
-        <v>394</v>
+      <c r="A625" s="5" t="s">
+        <v>2491</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A626" s="5" t="s">
-        <v>1118</v>
+      <c r="A626" s="3" t="s">
+        <v>2550</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" s="5" t="s">
-        <v>2490</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" s="5" t="s">
-        <v>1725</v>
+        <v>774</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="5" t="s">
-        <v>3128</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A630" s="5" t="s">
-        <v>2491</v>
+      <c r="A630" s="3" t="s">
+        <v>2553</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A631" s="3" t="s">
-        <v>2550</v>
+      <c r="A631" s="6" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A632" s="5" t="s">
-        <v>2551</v>
+      <c r="A632" s="3" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A633" s="5" t="s">
-        <v>774</v>
+      <c r="A633" s="3" t="s">
+        <v>2556</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A634" s="5" t="s">
-        <v>2552</v>
+      <c r="A634" s="3" t="s">
+        <v>3110</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A635" s="3" t="s">
-        <v>2553</v>
+      <c r="A635" s="6" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A636" s="6" t="s">
-        <v>716</v>
+      <c r="A636" s="3" t="s">
+        <v>2568</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" s="3" t="s">
-        <v>1648</v>
+        <v>804</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A638" s="3" t="s">
-        <v>2556</v>
+      <c r="A638" s="6" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" s="3" t="s">
-        <v>3110</v>
+        <v>789</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A640" s="6" t="s">
-        <v>746</v>
+      <c r="A640" s="3" t="s">
+        <v>2561</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" s="3" t="s">
-        <v>2568</v>
+        <v>793</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" s="3" t="s">
-        <v>804</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
-        <v>789</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
-        <v>2561</v>
+        <v>779</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" s="3" t="s">
-        <v>793</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
-        <v>1087</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A648" s="6" t="s">
-        <v>496</v>
+      <c r="A648" s="3" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
-        <v>2301</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A650" s="3" t="s">
-        <v>779</v>
+      <c r="A650" s="6" t="s">
+        <v>1354</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A651" s="3" t="s">
-        <v>1142</v>
+      <c r="A651" s="6" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" s="3" t="s">
-        <v>2567</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" s="3" t="s">
-        <v>895</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" s="3" t="s">
-        <v>1110</v>
+        <v>528</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A655" s="6" t="s">
-        <v>1354</v>
+      <c r="A655" s="3" t="s">
+        <v>2511</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A656" s="6" t="s">
-        <v>497</v>
+      <c r="A656" s="3" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="3" t="s">
-        <v>2510</v>
+        <v>788</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="3" t="s">
-        <v>2569</v>
+        <v>782</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" s="3" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
-        <v>2511</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A661" s="3" t="s">
-        <v>784</v>
+      <c r="A661" s="6" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" s="3" t="s">
-        <v>788</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" s="3" t="s">
-        <v>782</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A664" s="3" t="s">
-        <v>518</v>
+      <c r="A664" s="6" t="s">
+        <v>1254</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" s="3" t="s">
-        <v>1120</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A666" s="6" t="s">
-        <v>1355</v>
+      <c r="A666" s="3" t="s">
+        <v>2571</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" s="3" t="s">
-        <v>1356</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" s="3" t="s">
-        <v>3111</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A669" s="6" t="s">
-        <v>1254</v>
+      <c r="A669" s="3" t="s">
+        <v>2574</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" s="3" t="s">
-        <v>2519</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" s="3" t="s">
-        <v>2571</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" s="3" t="s">
-        <v>2572</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" s="3" t="s">
-        <v>2573</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" s="3" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" s="3" t="s">
-        <v>1726</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A676" s="3" t="s">
-        <v>1300</v>
+      <c r="A676" s="6" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" s="3" t="s">
-        <v>1377</v>
+        <v>568</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" s="3" t="s">
-        <v>1727</v>
+        <v>783</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A679" s="3" t="s">
-        <v>2575</v>
+      <c r="A679" s="6" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="3" t="s">
-        <v>2576</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" s="6" t="s">
-        <v>1478</v>
+        <v>529</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A683" s="3" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A684" s="6" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A685" s="3" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A686" s="6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A687" s="3" t="s">
         <v>2507</v>
       </c>
     </row>

--- a/skills/Skills v3.xlsx
+++ b/skills/Skills v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF12528-0F0A-6448-A8BF-3AA2D281E750}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F244A6D-CAC9-794E-8BA4-94A652929542}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13820" yWindow="460" windowWidth="14960" windowHeight="16200" activeTab="2" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="13820" yWindow="460" windowWidth="14960" windowHeight="16200" activeTab="4" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="3164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="3164">
   <si>
     <t>Skill</t>
   </si>
@@ -10256,8 +10256,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{719CD227-2781-DA4C-8A8D-A375AB8B579F}" name="Table1113" displayName="Table1113" ref="A1:A672" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A1:A672" xr:uid="{9FE3E1A7-0457-9B49-A511-D19235986222}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{719CD227-2781-DA4C-8A8D-A375AB8B579F}" name="Table1113" displayName="Table1113" ref="A1:A673" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="A1:A673" xr:uid="{9FE3E1A7-0457-9B49-A511-D19235986222}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A672">
     <sortCondition ref="A1:A672"/>
   </sortState>
@@ -10269,8 +10269,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{9BC02DCB-937E-4141-B68E-A88F4BF10445}" name="Table111314" displayName="Table111314" ref="A1:A506" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A1:A506" xr:uid="{9FE3E1A7-0457-9B49-A511-D19235986222}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{9BC02DCB-937E-4141-B68E-A88F4BF10445}" name="Table111314" displayName="Table111314" ref="A1:A507" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A1:A507" xr:uid="{9FE3E1A7-0457-9B49-A511-D19235986222}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A506">
     <sortCondition ref="A1:A506"/>
   </sortState>
@@ -10282,8 +10282,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7276080E-F262-4E48-861C-49BEC2BC39AF}" name="Table11131415" displayName="Table11131415" ref="A1:A552" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:A552" xr:uid="{9FE3E1A7-0457-9B49-A511-D19235986222}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7276080E-F262-4E48-861C-49BEC2BC39AF}" name="Table11131415" displayName="Table11131415" ref="A1:A553" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:A553" xr:uid="{9FE3E1A7-0457-9B49-A511-D19235986222}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A552">
     <sortCondition ref="A1:A552"/>
   </sortState>
@@ -14531,10 +14531,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BD6C51-312E-5442-8CD7-FA05F633FD18}">
-  <dimension ref="A1:A672"/>
+  <dimension ref="A1:A673"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A647" sqref="A647"/>
+    <sheetView topLeftCell="A644" workbookViewId="0">
+      <selection activeCell="A674" sqref="A674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17902,6 +17902,11 @@
         <v>2476</v>
       </c>
     </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17912,10 +17917,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD5C5A9-82BA-C04E-BC78-93831F010CA6}">
-  <dimension ref="A1:A506"/>
+  <dimension ref="A1:A507"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20453,6 +20458,11 @@
         <v>908</v>
       </c>
     </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -20463,10 +20473,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAE9924-44EA-7445-9E40-DADA67D208A9}">
-  <dimension ref="A1:A552"/>
+  <dimension ref="A1:A553"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A552" sqref="A552"/>
+    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
+      <selection activeCell="A554" sqref="A554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23232,6 +23242,11 @@
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
         <v>829</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="3" t="s">
+        <v>2143</v>
       </c>
     </row>
   </sheetData>
